--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16486E1-8897-4112-B979-8EBE680D61E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F2350-6952-4BAC-8C3B-1AE043498034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="356">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1174,6 +1174,67 @@
 Apoiador de pernas da poltrona 4 está duro na hora da flexibilidade.
 </t>
   </si>
+  <si>
+    <t>Lateral esquerda</t>
+  </si>
+  <si>
+    <t>Lateral direita, Lateral esquerda</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ym8ZfpRiUcM0qSEcHV2vqALn5HfDpsDB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1TIXDQtg18rqlSLgg3CuxdCKM-XmXwAqo</t>
+  </si>
+  <si>
+    <t>Arco íris no vidros dois dois lados D/E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zfM2x1bgnHKW_Z525aAsSgoLTnGJE2xL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HKqPMIccYOD0RTrHotIPPLxTYzBAhOog</t>
+  </si>
+  <si>
+    <t>4, 9, 22, 32, 34</t>
+  </si>
+  <si>
+    <t>9, 16, 37, 39</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>21, 31, 49</t>
+  </si>
+  <si>
+    <t>Esta sem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulfilme nas janelas 24 sem e na 31 com rasuras 
+Bagageiro sujo
+Porte do elevador de acessibilidade interna, cortina e Braço do banco sujo 
+Porta mala do motorista sujo e sem aporta
+Cabine do motorista teto encardido
+Acima da roda dianteira um filete de alumínio com avaria 
+Vidros das laterais direita e esquerda com mancha de arco-íris 
+Vidro panorâmica sem o símbolo da intapemirim
+Adesivo ANTT do vidro dianteiro está sem
+Adesivo de assédio sem
+USB sem conexão nas poltronas, 04,09,22,32 e 34
+Cortina da poltrona 55 suja
+Encosto de pernas na ponteira rasgado, 49,50,53 e 54
+Suporte de Encaixe da cama sujo 49,50 e 51
+Laterais das poltronas cama suja, primeiro piso
+Suporte da lateral da cortina da poltrona 51 solta 
+Freezo do ar do primeiro piso sujo
+Porta de acrílico da entrada do primeiro piso trincada 
+Chiclete no apoio de perna da poltrona 33
+Poltrona com mancha 09,16,19,37 e 39
+Cortina sem suporte na poltrona 07
+QRC sem nas poltronas 09 e 10
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1193,6 +1254,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1257,22 +1319,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -1296,13 +1342,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1321,7 +1383,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI18">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -1720,11 +1782,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI17"/>
+  <dimension ref="A1:GI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6025,6 +6087,83 @@
         <v>342</v>
       </c>
     </row>
+    <row r="18" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>46042.459398148145</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="3">
+        <v>40886</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
+        <v>46042</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K18" t="s">
+        <v>344</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AN18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>46174</v>
+      </c>
+      <c r="AT18" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX18">
+        <v>46174</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN18" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>351</v>
+      </c>
+      <c r="CK18" s="3"/>
+      <c r="CO18" s="3"/>
+      <c r="CZ18" t="s">
+        <v>352</v>
+      </c>
+      <c r="DC18" s="3"/>
+      <c r="DD18" t="s">
+        <v>353</v>
+      </c>
+      <c r="DG18" s="3"/>
+      <c r="DY18" t="s">
+        <v>196</v>
+      </c>
+      <c r="EB18" t="s">
+        <v>354</v>
+      </c>
+      <c r="FG18" t="s">
+        <v>196</v>
+      </c>
+      <c r="GI18" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6086,10 +6225,14 @@
     <hyperlink ref="R17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="S17" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="AT17" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="R18" r:id="rId60" xr:uid="{62D086AE-3502-4147-B614-FF114A88B399}"/>
+    <hyperlink ref="S18" r:id="rId61" xr:uid="{44FAE5AF-C976-46CC-9A72-BCDD90EF84F7}"/>
+    <hyperlink ref="AT18" r:id="rId62" xr:uid="{DAA3B18F-E7B3-4884-BDE1-38677182A1E3}"/>
+    <hyperlink ref="AY18" r:id="rId63" xr:uid="{19F9BB88-CA41-4F56-8D55-2F1AACCC4A05}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F2350-6952-4BAC-8C3B-1AE043498034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFB61C-5814-469D-9B9D-A6D720735914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="366">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1233,6 +1233,47 @@
 Poltrona com mancha 09,16,19,37 e 39
 Cortina sem suporte na poltrona 07
 QRC sem nas poltronas 09 e 10
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NLUeseSplZN4hrKNiMfSzAmZjpb2sqo_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1P3VqFVkPHRyD6eeMMSTwaKLjpRYf4woe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VR_W20T_of_EqOxaV0n5rUs1tokwXrTP</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 7, 9, 10, 11, 12, 13, 14, 16, 17, 19, 20, 21, 22, 23, 24, 26, 27, 28, 30, 31, 32, 34, 35, 36, 37, 38, 39, 40, 42, 44, 45, 46</t>
+  </si>
+  <si>
+    <t>16, 40</t>
+  </si>
+  <si>
+    <t>13, 14</t>
+  </si>
+  <si>
+    <t>37, 38</t>
+  </si>
+  <si>
+    <t>7, 9, 15, 33</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 7, 9, 11, 13, 15, 17, 19, 21, 23, 25, 27, 29, 31, 33, 35, 37, 39, 41, 43, 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulfilme rasurado da Janela 07,09,15 e 33
+Informativo de emergência descaracterizado da janela 21
+Geladeira; Amortecedor com ferrugem e desencaixado, sem borracha, com muita sujeira dentro da geladeira e pintar por fora 
+Carenagem da poltrona 40 do porta copo trincada e da 16 solta 
+Poltrona sem a numeração 37 e 38
+Apoio de pernas com sujeira 01,02,03,04,13,14 e 39
+QRC da poltrona 15 rasgado 
+Abraçadeira não abraca extintor 
+Suporte do extintor enferrujado 
+Higienizacao geral interna da frota.
+Carenagem porta embrulho parafuso solta na poltrona 14
 </t>
   </si>
 </sst>
@@ -1383,7 +1424,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI19">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -1782,11 +1823,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI18"/>
+  <dimension ref="A1:GI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6164,6 +6205,105 @@
         <v>355</v>
       </c>
     </row>
+    <row r="19" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>46042.597199074073</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20716</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="4">
+        <v>46042</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="R19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF19" s="3"/>
+      <c r="AS19" s="4">
+        <v>46266</v>
+      </c>
+      <c r="AT19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN19" s="3"/>
+      <c r="BZ19" t="s">
+        <v>359</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>360</v>
+      </c>
+      <c r="CK19" s="3"/>
+      <c r="CL19" t="s">
+        <v>361</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>304</v>
+      </c>
+      <c r="CO19" s="3"/>
+      <c r="CW19" t="s">
+        <v>362</v>
+      </c>
+      <c r="CZ19">
+        <v>15</v>
+      </c>
+      <c r="DB19">
+        <v>14</v>
+      </c>
+      <c r="DC19" s="3"/>
+      <c r="DD19" t="s">
+        <v>363</v>
+      </c>
+      <c r="DG19" s="3"/>
+      <c r="DI19" t="s">
+        <v>364</v>
+      </c>
+      <c r="DJ19" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK19" t="s">
+        <v>196</v>
+      </c>
+      <c r="EZ19" t="s">
+        <v>196</v>
+      </c>
+      <c r="FD19" t="s">
+        <v>196</v>
+      </c>
+      <c r="FH19" t="s">
+        <v>196</v>
+      </c>
+      <c r="FL19" t="s">
+        <v>196</v>
+      </c>
+      <c r="FT19" t="s">
+        <v>196</v>
+      </c>
+      <c r="FX19" t="s">
+        <v>196</v>
+      </c>
+      <c r="GB19" t="s">
+        <v>196</v>
+      </c>
+      <c r="GI19" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6229,10 +6369,13 @@
     <hyperlink ref="S18" r:id="rId61" xr:uid="{44FAE5AF-C976-46CC-9A72-BCDD90EF84F7}"/>
     <hyperlink ref="AT18" r:id="rId62" xr:uid="{DAA3B18F-E7B3-4884-BDE1-38677182A1E3}"/>
     <hyperlink ref="AY18" r:id="rId63" xr:uid="{19F9BB88-CA41-4F56-8D55-2F1AACCC4A05}"/>
+    <hyperlink ref="R19" r:id="rId64" xr:uid="{E12010A8-9D71-426F-86DA-62B58CE5D72E}"/>
+    <hyperlink ref="S19" r:id="rId65" xr:uid="{99F276CE-BF6E-4E44-AB76-3060E43510AB}"/>
+    <hyperlink ref="AT19" r:id="rId66" xr:uid="{4C73F48E-7435-4CB6-BABE-526035351BD1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId67"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFB61C-5814-469D-9B9D-A6D720735914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE2B4C-DEE5-4851-A3A2-7DEAF46D0163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="390">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1275,6 +1275,96 @@
 Higienizacao geral interna da frota.
 Carenagem porta embrulho parafuso solta na poltrona 14
 </t>
+  </si>
+  <si>
+    <t>Lateral direita, Traseira</t>
+  </si>
+  <si>
+    <t>Retrovisor esquerdo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1u-Hy0t7Rziau-zGcp9yyv9fRuRcYlSeZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1o-ldvE_yaYeYV5NBgKRU0uY3yLLSd0Lu</t>
+  </si>
+  <si>
+    <t>Arco íris nos vidros laterais 
+Avaria carroceria e vidro lateral direita, traseira 
+Avaria parte inferior do parachoque traseiro lado esquerdo
+Placa dianteira com parafuso solto 
+Ralado no retrovisor esquerdo 
+Luz do último degrau da escada queimada 
+Este carro tem a iluminação Premium do DD
+Realizar higienização nos cantos de porta das 3 portas 
+Borracha da porta de acessibilidade solta, com dois cortes</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1o6ibGIcqdZbbjbhYvSPzFI4WaLtQk1bE, https://drive.google.com/open?id=1GEgUVI154rPzKQPsCsrvRklh9S2lDmzP, https://drive.google.com/open?id=1pEUbxXuaLXJLgaEteNkAALBXTK6j_Eop, https://drive.google.com/open?id=1xXZyuQNTZ0D1oalr01p6PdqqxwMGd7cA, https://drive.google.com/open?id=1yk_xQ9VnH7TxpJ0r9R4xAcInwuTxEfPZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UPXV66y8U_GoO-Kpjlo6kN2-tsF07xnU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1q29s-CPgXOc2YHjbXZauphPXH172kdRN</t>
+  </si>
+  <si>
+    <t>Extintor secundário. O prendedor não está segurando. Estava preso com enforca gato. Difícil de retirar do lugar 
+Poltrona secundária cabine do motorista com avaria no couro do apoio de braço 
+Apoio de braço da poltrona secundária da cabine do motorista com folga 
+Falta de Higienizacao adequada das poltronas da cabine do motorista</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-t9Y8DwwWech_JoF-eg4uMg_0iAeeLg7, https://drive.google.com/open?id=1SNPZM5ltYxIupf3gQdQt7qpfAoRMSDzy</t>
+  </si>
+  <si>
+    <t>13, 24, 47, 48, 49, 50, 51, 52, 53, 54</t>
+  </si>
+  <si>
+    <t>1, 5, 24</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 49, 51</t>
+  </si>
+  <si>
+    <t>38, 48, 50, 51</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 52, 53, 54</t>
+  </si>
+  <si>
+    <t>21, 47, 48, 49, 51, 53, 55</t>
+  </si>
+  <si>
+    <t>47, 48, 49, 50, 51, 52, 53, 54</t>
+  </si>
+  <si>
+    <t>25, 33</t>
+  </si>
+  <si>
+    <t>21, 22, 24, 33, 35, 37, 43, 44, 45</t>
+  </si>
+  <si>
+    <t>15, 27, 43</t>
+  </si>
+  <si>
+    <t>5, 21, 35, 41, 47, 49, 53, 55</t>
+  </si>
+  <si>
+    <t>Acabamento da poltrona 51 na porta do USB e botão de acionamento Ralado
+Suporte cortina próximo a geladeira piso inferior solto
+Apoio de pernas das poltronas 47 e 49 com flexão rígida 
+Led cabine cama piso inferior muito fraco 
+Suporte cortinas 19 e 23 solto 
+Carenagem apoio de perna poltrona 25 e 33 
+Trocar adesivo acessibilidade poltrona 9 e 10</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UL598JgeoiQ0RsevSQTNj6qYPMortW_1</t>
+  </si>
+  <si>
+    <t>Carro por dentro sem muitas avarias, mas com necessidade de Higienizacao especial 
+Banheiro apenas higienizacao e avaria da janela</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1514,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI20">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -1823,11 +1913,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI19"/>
+  <dimension ref="A1:GI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6304,6 +6394,171 @@
         <v>365</v>
       </c>
     </row>
+    <row r="20" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>46042.718807870369</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="3">
+        <v>40186</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="4">
+        <v>46042</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s">
+        <v>344</v>
+      </c>
+      <c r="L20" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>292</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF20" s="3"/>
+      <c r="AH20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>46174</v>
+      </c>
+      <c r="AT20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX20">
+        <v>46388</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>373</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>374</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>375</v>
+      </c>
+      <c r="BN20" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>377</v>
+      </c>
+      <c r="BY20">
+        <v>53</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>378</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>379</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>380</v>
+      </c>
+      <c r="CK20" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>382</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>383</v>
+      </c>
+      <c r="CO20" s="3"/>
+      <c r="CZ20" t="s">
+        <v>384</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>352</v>
+      </c>
+      <c r="DC20" s="3"/>
+      <c r="DD20" t="s">
+        <v>385</v>
+      </c>
+      <c r="DG20" s="3"/>
+      <c r="DI20" t="s">
+        <v>386</v>
+      </c>
+      <c r="DL20" t="s">
+        <v>196</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>196</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>387</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>388</v>
+      </c>
+      <c r="FI20" t="s">
+        <v>196</v>
+      </c>
+      <c r="FQ20" t="s">
+        <v>196</v>
+      </c>
+      <c r="FR20" t="s">
+        <v>196</v>
+      </c>
+      <c r="FS20" t="s">
+        <v>196</v>
+      </c>
+      <c r="FU20" t="s">
+        <v>196</v>
+      </c>
+      <c r="FW20" t="s">
+        <v>196</v>
+      </c>
+      <c r="GD20" t="s">
+        <v>196</v>
+      </c>
+      <c r="GI20" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6372,10 +6627,15 @@
     <hyperlink ref="R19" r:id="rId64" xr:uid="{E12010A8-9D71-426F-86DA-62B58CE5D72E}"/>
     <hyperlink ref="S19" r:id="rId65" xr:uid="{99F276CE-BF6E-4E44-AB76-3060E43510AB}"/>
     <hyperlink ref="AT19" r:id="rId66" xr:uid="{4C73F48E-7435-4CB6-BABE-526035351BD1}"/>
+    <hyperlink ref="R20" r:id="rId67" xr:uid="{1DDB0C10-3AFF-4291-BB6C-CBED10A0B5E6}"/>
+    <hyperlink ref="S20" r:id="rId68" xr:uid="{BCED7EB7-667B-44BC-A558-428C4D7F8051}"/>
+    <hyperlink ref="AT20" r:id="rId69" xr:uid="{584ACD59-AC8C-469B-B398-626E6E0DD8E3}"/>
+    <hyperlink ref="AY20" r:id="rId70" xr:uid="{B99BC261-F73A-4967-A200-9D92E9E3D8C7}"/>
+    <hyperlink ref="EC20" r:id="rId71" xr:uid="{96B4E1C2-4630-41B9-A23E-B3053D86F361}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId67"/>
+    <tablePart r:id="rId72"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE2B4C-DEE5-4851-A3A2-7DEAF46D0163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADDC92-A970-4834-828B-0780EFFD4332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,9 +1915,9 @@
   </sheetPr>
   <dimension ref="A1:GI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX19" sqref="AX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6008,7 +6008,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
+      <c r="AX16" s="4"/>
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
@@ -6199,6 +6199,7 @@
       <c r="AT17" s="7" t="s">
         <v>339</v>
       </c>
+      <c r="AX17" s="4"/>
       <c r="BN17" s="3" t="s">
         <v>340</v>
       </c>
@@ -6260,7 +6261,7 @@
       <c r="AT18" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" s="4">
         <v>46174</v>
       </c>
       <c r="AY18" t="s">
@@ -6331,6 +6332,7 @@
       <c r="AT19" s="7" t="s">
         <v>358</v>
       </c>
+      <c r="AX19" s="4"/>
       <c r="BN19" s="3"/>
       <c r="BZ19" t="s">
         <v>359</v>
@@ -6468,7 +6470,7 @@
       <c r="AW20" t="s">
         <v>196</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" s="4">
         <v>46388</v>
       </c>
       <c r="AY20" t="s">

--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADDC92-A970-4834-828B-0780EFFD4332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F2DBD-EC91-4CA6-9F27-972357AF35AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="404">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1365,6 +1365,63 @@
   <si>
     <t>Carro por dentro sem muitas avarias, mas com necessidade de Higienizacao especial 
 Banheiro apenas higienizacao e avaria da janela</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18nKb01ftQu-SHrG-hdASO9bwnKYcOf-O</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1i39EfkDKKpUw67zpccskEx71q-AWQhxL</t>
+  </si>
+  <si>
+    <t>Trinca na pintura na coluna do lado esquerdo acima da lanterna 
+Bagageiro sujo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CQ8HkNA0KsKQZFfDAMpj6BUVswYod0BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sujeira no painel do motorista entre os vidros 
+Suporte do volante da parte de baixo quebrado 
+Vareta do quebra sol do motorista fora de badrao e do carona sem.
+Suporte do extintor enferrujado 
+</t>
+  </si>
+  <si>
+    <t>1, 9</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 10, 11, 13, 14, 19, 20, 25, 27, 30, 32, 34, 40, 41, 44, 45</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mola não segura nas poltronas 01 e 09.
+Higienizacao geral nas poltronas 
+Apoia de pernas 17 rasgado e no 22 Chiclete grudado e sujeira 01,02,03 e 04.
+Carenagem com UBS, LUZ DE LEITURA E AR da poltrona 1 está solta 
+Sem o botão de parada na poltrona 05
+Higienizacao da lateral próximo ao piso
+Higienizacao no piso dos bancos 
+Insulfilme furado na poltrona 5
+Porta copos Higienizacao total. 
+Tampa do do suporte de cortina da poltrona 44 está sem
+</t>
+  </si>
+  <si>
+    <t>Pintura; tampa do vazo,pia na porta externa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17JDxa1saJEL9-UAKGfpSSrdtLZQqoiVE</t>
+  </si>
+  <si>
+    <t>Geladeira; borracha solta, sem luz,sem amortecedor e fazer pintura externa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ffz56aGjAeHBxTa_6CzQVxIEXU8zUY0X</t>
+  </si>
+  <si>
+    <t>ESSA FROTA TEM QUE PASSAR PELO PROCESSO DE HIGIENIZACAO.</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1571,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI21">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -1913,11 +1970,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI20"/>
+  <dimension ref="A1:GI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX19" sqref="AX19"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1950,7 +2007,9 @@
     <col min="44" max="46" width="37.6640625" customWidth="1"/>
     <col min="47" max="47" width="37.44140625" customWidth="1"/>
     <col min="48" max="48" width="37.21875" customWidth="1"/>
-    <col min="49" max="51" width="37.6640625" customWidth="1"/>
+    <col min="49" max="49" width="37.6640625" customWidth="1"/>
+    <col min="50" max="50" width="48" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="37.6640625" customWidth="1"/>
     <col min="52" max="52" width="26" customWidth="1"/>
     <col min="53" max="53" width="28.33203125" customWidth="1"/>
     <col min="54" max="54" width="34.33203125" customWidth="1"/>
@@ -6561,6 +6620,125 @@
         <v>389</v>
       </c>
     </row>
+    <row r="21" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>46043.420578703706</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20616</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="4">
+        <v>46043</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="U21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF21" s="3"/>
+      <c r="AN21" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="AX21" s="4"/>
+      <c r="BK21" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN21" s="3"/>
+      <c r="BX21" t="s">
+        <v>395</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>396</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>280</v>
+      </c>
+      <c r="CK21" s="3">
+        <v>17</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>397</v>
+      </c>
+      <c r="CO21" s="3"/>
+      <c r="DB21">
+        <v>2</v>
+      </c>
+      <c r="DC21" s="3"/>
+      <c r="DD21">
+        <v>5</v>
+      </c>
+      <c r="DG21" s="3"/>
+      <c r="DI21" t="s">
+        <v>364</v>
+      </c>
+      <c r="DJ21" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK21" t="s">
+        <v>196</v>
+      </c>
+      <c r="EB21" t="s">
+        <v>398</v>
+      </c>
+      <c r="ER21" t="s">
+        <v>196</v>
+      </c>
+      <c r="ES21" t="s">
+        <v>196</v>
+      </c>
+      <c r="EU21" t="s">
+        <v>399</v>
+      </c>
+      <c r="EV21" t="s">
+        <v>400</v>
+      </c>
+      <c r="FH21" t="s">
+        <v>196</v>
+      </c>
+      <c r="FL21" t="s">
+        <v>196</v>
+      </c>
+      <c r="FT21" t="s">
+        <v>196</v>
+      </c>
+      <c r="GB21" t="s">
+        <v>196</v>
+      </c>
+      <c r="GG21" t="s">
+        <v>401</v>
+      </c>
+      <c r="GH21" t="s">
+        <v>402</v>
+      </c>
+      <c r="GI21" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6634,10 +6812,15 @@
     <hyperlink ref="AT20" r:id="rId69" xr:uid="{584ACD59-AC8C-469B-B398-626E6E0DD8E3}"/>
     <hyperlink ref="AY20" r:id="rId70" xr:uid="{B99BC261-F73A-4967-A200-9D92E9E3D8C7}"/>
     <hyperlink ref="EC20" r:id="rId71" xr:uid="{96B4E1C2-4630-41B9-A23E-B3053D86F361}"/>
+    <hyperlink ref="R21" r:id="rId72" xr:uid="{B9CA489F-0920-4FF2-87A0-7B50566AB88E}"/>
+    <hyperlink ref="S21" r:id="rId73" xr:uid="{66790E52-C13F-48EE-99A1-01D6501A21EE}"/>
+    <hyperlink ref="AT21" r:id="rId74" xr:uid="{6F53FD4C-2D05-4C38-8C2A-005AF1D1A3BB}"/>
+    <hyperlink ref="EV21" r:id="rId75" xr:uid="{F6DD32CB-1697-45A5-8F79-C793A4005EFD}"/>
+    <hyperlink ref="GH21" r:id="rId76" xr:uid="{1F3D2308-6492-4D64-BBFB-C384C4BDE90C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId77"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F2DBD-EC91-4CA6-9F27-972357AF35AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B6197-D372-4C2E-A357-315D2C926E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="420">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1422,6 +1422,77 @@
   </si>
   <si>
     <t>ESSA FROTA TEM QUE PASSAR PELO PROCESSO DE HIGIENIZACAO.</t>
+  </si>
+  <si>
+    <t>Retrovisor direito</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hHAFfyfOZfkG03htufePiOdDYMrFt1lG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12R71LmisoZcF-IIR1OdXCQVBiLI4qP3t</t>
+  </si>
+  <si>
+    <t>Adesivo (fita) vermelho do L/E rasurado 
+Retrovisor do L/D braço trincado
+Vidros das duas laterais com arco-íris 
+Porta de acessibilidade sujeira interna 
+Bagageiro com sujo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vWkivd5jHn9D67iiXOGMpqezlGOHOxus, https://drive.google.com/open?id=1TtY5rlb8L2wFRl0j9V3hnjRrAcoPH7R0</t>
+  </si>
+  <si>
+    <t>Cinto de segurança do motorista sem acionamento 
+Tela de saída do ar do lado direito está solta</t>
+  </si>
+  <si>
+    <t>1, 2, 5, 6, 9, 10, 11, 12, 13, 17, 18, 19, 21, 22, 23, 28, 29, 30, 33, 34, 37, 38, 41, 42, 44, 45, 46</t>
+  </si>
+  <si>
+    <t>8, 12, 21, 23, 24</t>
+  </si>
+  <si>
+    <t>6, 7, 8, 11, 16, 19, 37</t>
+  </si>
+  <si>
+    <t>3, 45</t>
+  </si>
+  <si>
+    <t>18, 30, 34, 43, 44, 45, 46</t>
+  </si>
+  <si>
+    <t>18, 30, 34, 42, 43, 44, 45, 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB sem conexão, 1,2,5,6,9,10,12,13,14,17,18,19,21,22,23,28,29,30,33,34,37,38,41,42,44,45 e 46
+Quando acionado o Encosto, ele não sobe, poltronas 8,12,21,23,24,29,31,32,7,39 e 41
+Couro da poltrona 20 furado 
+Poltrona com marca de Chiclete, 6,7,811,16,19 e 37
+Poltrona 19 está sem a fêmea do cinto 
+Lanterna de leitura das poltronas 32 e 46 queimadas
+Traçar adesivo QRC poltrona 37
+Piso com marca de Chiclete na altura das poltronas! 18,30 e 34
+chiclete na lateral da poltrona 5
+Insulfilme da poltrona 3 e 45 com furo
+</t>
+  </si>
+  <si>
+    <t>Pia com o suporte quebrado 
+Porta interna encardida 
+Porta externa furada próximo ao roda pé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem amortecedor e sem luz
+Suja
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porta revista da poltrona 6 sem elasticidade 
+Prendedor de cortina só com parafuso nas janelas 3 e 45
+Prendedor de cortinas sem a capinha de proteção nas janelas 6 e 27
+Teto solar, adesivo de saída de emergência descolado 
+</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1642,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI22">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -1970,11 +2041,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI21"/>
+  <dimension ref="A1:GI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN22" sqref="BN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6739,6 +6810,126 @@
         <v>403</v>
       </c>
     </row>
+    <row r="22" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>46043.537928240738</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30126</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>46043</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="K22" t="s">
+        <v>344</v>
+      </c>
+      <c r="L22" t="s">
+        <v>404</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="U22" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF22" s="3"/>
+      <c r="AN22" t="s">
+        <v>407</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="7"/>
+      <c r="AX22" s="4"/>
+      <c r="BH22" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN22" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>411</v>
+      </c>
+      <c r="BY22">
+        <v>20</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>412</v>
+      </c>
+      <c r="CE22">
+        <v>19</v>
+      </c>
+      <c r="CK22" s="3"/>
+      <c r="CO22" s="3"/>
+      <c r="CU22" t="s">
+        <v>255</v>
+      </c>
+      <c r="CZ22">
+        <v>37</v>
+      </c>
+      <c r="DC22" s="3"/>
+      <c r="DD22" t="s">
+        <v>413</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>414</v>
+      </c>
+      <c r="DG22" s="3"/>
+      <c r="DI22">
+        <v>5</v>
+      </c>
+      <c r="DJ22" t="s">
+        <v>415</v>
+      </c>
+      <c r="DL22" t="s">
+        <v>196</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>416</v>
+      </c>
+      <c r="ES22" t="s">
+        <v>196</v>
+      </c>
+      <c r="ET22" t="s">
+        <v>196</v>
+      </c>
+      <c r="EU22" t="s">
+        <v>417</v>
+      </c>
+      <c r="EZ22" t="s">
+        <v>196</v>
+      </c>
+      <c r="FH22" t="s">
+        <v>196</v>
+      </c>
+      <c r="FT22" t="s">
+        <v>196</v>
+      </c>
+      <c r="GG22" t="s">
+        <v>418</v>
+      </c>
+      <c r="GI22" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6817,10 +7008,12 @@
     <hyperlink ref="AT21" r:id="rId74" xr:uid="{6F53FD4C-2D05-4C38-8C2A-005AF1D1A3BB}"/>
     <hyperlink ref="EV21" r:id="rId75" xr:uid="{F6DD32CB-1697-45A5-8F79-C793A4005EFD}"/>
     <hyperlink ref="GH21" r:id="rId76" xr:uid="{1F3D2308-6492-4D64-BBFB-C384C4BDE90C}"/>
+    <hyperlink ref="R22" r:id="rId77" xr:uid="{17B6A508-DD1E-4348-9CD3-B7E990837EC4}"/>
+    <hyperlink ref="S22" r:id="rId78" xr:uid="{04B7426A-6117-4E4E-ABFE-3D8586D6083F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId77"/>
+    <tablePart r:id="rId79"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B6197-D372-4C2E-A357-315D2C926E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2FB0C-4CF9-49C0-A70D-12773BBC9246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="432">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1493,6 +1493,50 @@
 Prendedor de cortinas sem a capinha de proteção nas janelas 6 e 27
 Teto solar, adesivo de saída de emergência descolado 
 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dVUEFTP9jE05GEOEmHTERV3sig1_On2C</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QoRl_kseOyQMPMFE8JYQBnFUeMEGCbpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanterna no parachoque traseiro do lado direito com folga
+Trinca na pintura traseira do lado direito próximo a coluna 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1g3Py5S4rG3-zv7xpkDCLsTCG2Wqyu_Ll</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1W3m-kUpNoVMWraeV9G0SgvXbISM7S-Ea</t>
+  </si>
+  <si>
+    <t>USB não funciona 
+Limpeza na cabine e entre os para-parabrisa e painel do motorista 
+Teto da cabine do motorista trincado</t>
+  </si>
+  <si>
+    <t>1, 7, 10, 15</t>
+  </si>
+  <si>
+    <t>7, 8, 9, 11, 13, 14, 15, 16, 17, 18, 21, 22, 25, 26, 27, 28, 29, 30, 33, 34, 35, 36, 37, 38, 39, 40, 43, 44, 45, 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiqueta do QRC para troca 
+Acento rasgado 
+Cortina manchada 
+Insulfilme furado 
+</t>
+  </si>
+  <si>
+    <t>Porta do banheiro com puxador solto e uma parte ds borracha da porta descolada</t>
+  </si>
+  <si>
+    <t>Pintura na grade metálica</t>
+  </si>
+  <si>
+    <t>Suporte das cortinas das poltronas 11 e 41 quebrado</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1686,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI23">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2041,11 +2085,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI22"/>
+  <dimension ref="A1:GI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN22" sqref="BN22"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6930,6 +6974,106 @@
         <v>419</v>
       </c>
     </row>
+    <row r="23" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>46043.704641203702</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20546</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="4">
+        <v>46043</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF23" s="3"/>
+      <c r="AN23" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>423</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>46266</v>
+      </c>
+      <c r="AT23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="AX23" s="4"/>
+      <c r="BD23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>425</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN23" s="3">
+        <v>46</v>
+      </c>
+      <c r="BY23">
+        <v>22</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>426</v>
+      </c>
+      <c r="CK23" s="3"/>
+      <c r="CL23">
+        <v>1</v>
+      </c>
+      <c r="CO23" s="3">
+        <v>43</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>427</v>
+      </c>
+      <c r="DC23" s="3"/>
+      <c r="DD23">
+        <v>13</v>
+      </c>
+      <c r="DG23" s="3"/>
+      <c r="DJ23">
+        <v>11</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>428</v>
+      </c>
+      <c r="EM23" t="s">
+        <v>196</v>
+      </c>
+      <c r="EU23" t="s">
+        <v>429</v>
+      </c>
+      <c r="FD23" t="s">
+        <v>196</v>
+      </c>
+      <c r="GG23" t="s">
+        <v>430</v>
+      </c>
+      <c r="GI23" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7010,10 +7154,14 @@
     <hyperlink ref="GH21" r:id="rId76" xr:uid="{1F3D2308-6492-4D64-BBFB-C384C4BDE90C}"/>
     <hyperlink ref="R22" r:id="rId77" xr:uid="{17B6A508-DD1E-4348-9CD3-B7E990837EC4}"/>
     <hyperlink ref="S22" r:id="rId78" xr:uid="{04B7426A-6117-4E4E-ABFE-3D8586D6083F}"/>
+    <hyperlink ref="R23" r:id="rId79" xr:uid="{9EC77335-8403-41C1-9AAE-D6AC0E595DF8}"/>
+    <hyperlink ref="S23" r:id="rId80" xr:uid="{E6542927-0170-42DF-8DD9-005EEB39DBD8}"/>
+    <hyperlink ref="AO23" r:id="rId81" xr:uid="{EA35DD7B-23CA-4F03-9626-BF1B04250A07}"/>
+    <hyperlink ref="AT23" r:id="rId82" xr:uid="{3CD5967C-3D0F-4E64-95C2-E74F7720D32B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId79"/>
+    <tablePart r:id="rId83"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2FB0C-4CF9-49C0-A70D-12773BBC9246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACC8074-1374-4EEA-BE08-96F0EE426FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="440">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1537,6 +1537,34 @@
   </si>
   <si>
     <t>Suporte das cortinas das poltronas 11 e 41 quebrado</t>
+  </si>
+  <si>
+    <t>Retrovisor direito, Retrovisor esquerdo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11S2DfPCUPGY8Y7jtQcT6xegCiqr8assS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BGs8DEyVmqo7dXgZOPhSR6dAdIe2nObl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braço dos retrovisores D/E ralados 
+Último degrau da escada lâmpada queimada 
+Vidros da tateral D/E com arco-íris 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ePCpdRH9Uvi568hFlCjPo86qBgVeCTGV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1DHeFCffJ52WF8gD-QL6fOlhfcsiHCm7U</t>
+  </si>
+  <si>
+    <t>1, 19, 28, 47, 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amortecedor não aciona o retorno do Encosto...
+</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1714,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI24">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2085,11 +2113,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI23"/>
+  <dimension ref="A1:GI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7074,6 +7102,78 @@
         <v>431</v>
       </c>
     </row>
+    <row r="24" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>46044.436192129629</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21116</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="4">
+        <v>46044</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="L24" t="s">
+        <v>432</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF24" s="3"/>
+      <c r="AH24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>435</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AT24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AX24" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>437</v>
+      </c>
+      <c r="BN24" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="BW24">
+        <v>10</v>
+      </c>
+      <c r="BY24">
+        <v>51</v>
+      </c>
+      <c r="BZ24">
+        <v>51</v>
+      </c>
+      <c r="CK24" s="3"/>
+      <c r="CO24" s="3"/>
+      <c r="DC24" s="3"/>
+      <c r="DG24" s="3"/>
+      <c r="EB24" t="s">
+        <v>439</v>
+      </c>
+      <c r="GI24" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7158,10 +7258,14 @@
     <hyperlink ref="S23" r:id="rId80" xr:uid="{E6542927-0170-42DF-8DD9-005EEB39DBD8}"/>
     <hyperlink ref="AO23" r:id="rId81" xr:uid="{EA35DD7B-23CA-4F03-9626-BF1B04250A07}"/>
     <hyperlink ref="AT23" r:id="rId82" xr:uid="{3CD5967C-3D0F-4E64-95C2-E74F7720D32B}"/>
+    <hyperlink ref="R24" r:id="rId83" xr:uid="{26A2DE2E-1BAE-44D0-9401-D5D95111D1E0}"/>
+    <hyperlink ref="S24" r:id="rId84" xr:uid="{D3A9CC6C-3DE2-4B86-963B-ECDE7ECDF751}"/>
+    <hyperlink ref="AT24" r:id="rId85" xr:uid="{426C67D9-018E-4D99-8B10-0F8E1BDF4634}"/>
+    <hyperlink ref="AY24" r:id="rId86" xr:uid="{52558C85-2B2D-4138-B29D-FC9EDA27941B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId83"/>
+    <tablePart r:id="rId87"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACC8074-1374-4EEA-BE08-96F0EE426FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C5EB6-D48D-485E-A3EF-FFB8FE5D7F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="450">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1565,6 +1565,38 @@
   <si>
     <t xml:space="preserve">Amortecedor não aciona o retorno do Encosto...
 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cNP__mUB1K9mVPqrOwNLFTBYE01lZB3c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1g6w6fXj3eOm_3LS7pMaG9ckIyw12GbXt</t>
+  </si>
+  <si>
+    <t>Retrovisore lad D Ralado</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13cOwHjy9cemH316Iygcd2y18qBGBEjNG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YtQ_QwGtBcQXe2OV3lk8QYIHSnlVCBvx</t>
+  </si>
+  <si>
+    <t>3, 8, 20, 32, 36, 40, 47, 48, 49, 50, 51</t>
+  </si>
+  <si>
+    <t>32, 39, 48, 50</t>
+  </si>
+  <si>
+    <t>Amortecedor do Encosto da poltrona 36 não está acionando na hora de levantar 
+O suporte da tomada 110 que está no porta embrulho nos fundos está sem o pluque</t>
+  </si>
+  <si>
+    <t>Porta papel higiênico está sem a tampa 
+O balcão da pia precisa de reparo de pintura</t>
+  </si>
+  <si>
+    <t>No painel panorâmica tem uma fita de luz de Led, a mesma está solta</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1746,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI25">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2113,11 +2145,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI24"/>
+  <dimension ref="A1:GI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7174,6 +7206,89 @@
       </c>
       <c r="GI24" s="3"/>
     </row>
+    <row r="25" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>46044.525000000001</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="3">
+        <v>40386</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="4">
+        <v>46044</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="L25" t="s">
+        <v>404</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AN25" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>46174</v>
+      </c>
+      <c r="AT25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>444</v>
+      </c>
+      <c r="BN25" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="BW25">
+        <v>36</v>
+      </c>
+      <c r="CJ25">
+        <v>37</v>
+      </c>
+      <c r="CK25" s="3"/>
+      <c r="CO25" s="3"/>
+      <c r="CR25">
+        <v>54</v>
+      </c>
+      <c r="CS25">
+        <v>54</v>
+      </c>
+      <c r="CU25" t="s">
+        <v>446</v>
+      </c>
+      <c r="DC25" s="3"/>
+      <c r="DG25" s="3"/>
+      <c r="EB25" t="s">
+        <v>447</v>
+      </c>
+      <c r="EG25" t="s">
+        <v>196</v>
+      </c>
+      <c r="EU25" t="s">
+        <v>448</v>
+      </c>
+      <c r="GI25" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7262,10 +7377,14 @@
     <hyperlink ref="S24" r:id="rId84" xr:uid="{D3A9CC6C-3DE2-4B86-963B-ECDE7ECDF751}"/>
     <hyperlink ref="AT24" r:id="rId85" xr:uid="{426C67D9-018E-4D99-8B10-0F8E1BDF4634}"/>
     <hyperlink ref="AY24" r:id="rId86" xr:uid="{52558C85-2B2D-4138-B29D-FC9EDA27941B}"/>
+    <hyperlink ref="R25" r:id="rId87" xr:uid="{5DEED717-F8DC-43CD-B745-F13F2B10DA9E}"/>
+    <hyperlink ref="S25" r:id="rId88" xr:uid="{2F893A27-3209-4FE3-86C3-EF99D16368A0}"/>
+    <hyperlink ref="AT25" r:id="rId89" xr:uid="{B0BE96EE-79F5-421B-86A7-712EEDA48C6E}"/>
+    <hyperlink ref="AY25" r:id="rId90" xr:uid="{767C0122-5309-41EF-B04B-FC0686B931C1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId87"/>
+    <tablePart r:id="rId91"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C5EB6-D48D-485E-A3EF-FFB8FE5D7F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB7EFD3-5EA9-413A-BF43-F1F571F28BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="458">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1597,6 +1597,30 @@
   </si>
   <si>
     <t>No painel panorâmica tem uma fita de luz de Led, a mesma está solta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1R16tIw1Be27bxoU6i_ps9-u7if32ZoUI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18YRLIHzzwtQsuaPXNZnf6_QNBivreWbk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fVIWM-7JQTFbpXt27LVUI68C4qxNiNTZ</t>
+  </si>
+  <si>
+    <t>11, 35</t>
+  </si>
+  <si>
+    <t>2, 6, 7, 8, 9, 16, 21, 24, 25, 26, 38, 42, 44, 45, 46</t>
+  </si>
+  <si>
+    <t>45, 46</t>
+  </si>
+  <si>
+    <t>5, 9, 17, 33, 37</t>
+  </si>
+  <si>
+    <t>Esta sem a tampa de proteção</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1770,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI26">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2145,11 +2169,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI25"/>
+  <dimension ref="A1:GI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7288,6 +7312,75 @@
       <c r="GI25" s="3" t="s">
         <v>449</v>
       </c>
+    </row>
+    <row r="26" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>46044.671724537038</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="3">
+        <v>21076</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="4">
+        <v>46044</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="R26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF26" s="3"/>
+      <c r="AS26" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AT26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AX26" s="4"/>
+      <c r="BN26" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="BV26">
+        <v>1</v>
+      </c>
+      <c r="BY26">
+        <v>45</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>454</v>
+      </c>
+      <c r="CK26" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="CO26" s="3"/>
+      <c r="CT26">
+        <v>19</v>
+      </c>
+      <c r="DC26" s="3"/>
+      <c r="DD26" t="s">
+        <v>456</v>
+      </c>
+      <c r="DG26" s="3"/>
+      <c r="EG26" t="s">
+        <v>196</v>
+      </c>
+      <c r="EU26" t="s">
+        <v>457</v>
+      </c>
+      <c r="GI26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7381,10 +7474,13 @@
     <hyperlink ref="S25" r:id="rId88" xr:uid="{2F893A27-3209-4FE3-86C3-EF99D16368A0}"/>
     <hyperlink ref="AT25" r:id="rId89" xr:uid="{B0BE96EE-79F5-421B-86A7-712EEDA48C6E}"/>
     <hyperlink ref="AY25" r:id="rId90" xr:uid="{767C0122-5309-41EF-B04B-FC0686B931C1}"/>
+    <hyperlink ref="R26" r:id="rId91" xr:uid="{34EF4B34-FAF0-4204-A0A8-769C24B0B167}"/>
+    <hyperlink ref="S26" r:id="rId92" xr:uid="{501C8042-1E11-4024-BEDE-380DD787E580}"/>
+    <hyperlink ref="AT26" r:id="rId93" xr:uid="{FBD40799-F773-46F0-B7D1-965C795AAB2A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId91"/>
+    <tablePart r:id="rId94"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB7EFD3-5EA9-413A-BF43-F1F571F28BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FE16EE-3610-4CE5-85DB-24140547EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="465">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1621,6 +1621,27 @@
   </si>
   <si>
     <t>Esta sem a tampa de proteção</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18MPgL1Cr3Q3BAi8iQztoD73X5DJ1lrDt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13SikLBzpC14NJOtXqIOeQC04eCH1D8R3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11Ai5yVf7oG2fvzECjYvV3g9gHFIEg4i8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1T9nKAJoec9LAxwEfOUac7339ku1JyLGp</t>
+  </si>
+  <si>
+    <t>8, 10</t>
+  </si>
+  <si>
+    <t>6, 7, 15, 21, 30, 33, 36, 44, 49, 51, 53, 54</t>
+  </si>
+  <si>
+    <t>15, 27, 29</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1791,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI27">
   <tableColumns count="191">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2169,11 +2190,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI26"/>
+  <dimension ref="A1:GI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7381,6 +7402,66 @@
         <v>457</v>
       </c>
       <c r="GI26" s="3"/>
+    </row>
+    <row r="27" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>46045.668981481482</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="3">
+        <v>40816</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="4">
+        <v>46045</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="R27" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF27" s="3"/>
+      <c r="AS27" s="4">
+        <v>46174</v>
+      </c>
+      <c r="AT27" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX27" s="4"/>
+      <c r="AY27" t="s">
+        <v>461</v>
+      </c>
+      <c r="BN27" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="CK27" s="3"/>
+      <c r="CO27" s="3">
+        <v>49</v>
+      </c>
+      <c r="CS27">
+        <v>54</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>463</v>
+      </c>
+      <c r="CZ27" t="s">
+        <v>464</v>
+      </c>
+      <c r="DC27" s="3"/>
+      <c r="DG27" s="3"/>
+      <c r="GI27" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7477,10 +7558,14 @@
     <hyperlink ref="R26" r:id="rId91" xr:uid="{34EF4B34-FAF0-4204-A0A8-769C24B0B167}"/>
     <hyperlink ref="S26" r:id="rId92" xr:uid="{501C8042-1E11-4024-BEDE-380DD787E580}"/>
     <hyperlink ref="AT26" r:id="rId93" xr:uid="{FBD40799-F773-46F0-B7D1-965C795AAB2A}"/>
+    <hyperlink ref="R27" r:id="rId94" xr:uid="{F4853AE9-AB33-4912-A998-565D877B5F4F}"/>
+    <hyperlink ref="S27" r:id="rId95" xr:uid="{D1F6C8B1-8814-4CCB-9AF5-BA31EF395C85}"/>
+    <hyperlink ref="AT27" r:id="rId96" xr:uid="{456F0A9E-4DF5-4B2C-9371-90770E165FA4}"/>
+    <hyperlink ref="AY27" r:id="rId97" xr:uid="{46102FF3-5EF5-49DC-A57E-CF97B41E481B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId94"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FE16EE-3610-4CE5-85DB-24140547EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB74B9DC-4E82-49EA-BF08-501DBD61CFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,109 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="GI19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="GJ28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="GJ29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="487">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -593,6 +694,9 @@
   </si>
   <si>
     <t>Escreva abaixo suas observações gerais sobre a vistoria deste carro</t>
+  </si>
+  <si>
+    <t>Quilometragem do ônibus</t>
   </si>
   <si>
     <t>user.formulario.novaitapemirim@gmail.com</t>
@@ -1208,7 +1312,7 @@
     <t>21, 31, 49</t>
   </si>
   <si>
-    <t>Esta sem</t>
+    <t xml:space="preserve">Esta sem </t>
   </si>
   <si>
     <t xml:space="preserve">Insulfilme nas janelas 24 sem e na 31 com rasuras 
@@ -1309,10 +1413,10 @@
     <t>https://drive.google.com/open?id=1q29s-CPgXOc2YHjbXZauphPXH172kdRN</t>
   </si>
   <si>
-    <t>Extintor secundário. O prendedor não está segurando. Estava preso com enforca gato. Difícil de retirar do lugar 
+    <t xml:space="preserve">Extintor secundário. O prendedor não está segurando. Estava preso com enforca gato. Difícil de retirar do lugar 
 Poltrona secundária cabine do motorista com avaria no couro do apoio de braço 
 Apoio de braço da poltrona secundária da cabine do motorista com folga 
-Falta de Higienizacao adequada das poltronas da cabine do motorista</t>
+Falta de Higienizacao adequada das poltronas da cabine do motorista </t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1-t9Y8DwwWech_JoF-eg4uMg_0iAeeLg7, https://drive.google.com/open?id=1SNPZM5ltYxIupf3gQdQt7qpfAoRMSDzy</t>
@@ -1382,7 +1486,7 @@
   <si>
     <t xml:space="preserve">Sujeira no painel do motorista entre os vidros 
 Suporte do volante da parte de baixo quebrado 
-Vareta do quebra sol do motorista fora de badrao e do carona sem.
+Vareta do quebra sol do motorista fora de badrao e do carona  sem.
 Suporte do extintor enferrujado 
 </t>
   </si>
@@ -1399,7 +1503,7 @@
     <t xml:space="preserve">Mola não segura nas poltronas 01 e 09.
 Higienizacao geral nas poltronas 
 Apoia de pernas 17 rasgado e no 22 Chiclete grudado e sujeira 01,02,03 e 04.
-Carenagem com UBS, LUZ DE LEITURA E AR da poltrona 1 está solta 
+Carenagem com UBS, LUZ DE LEITURA E AR  da poltrona 1 está solta 
 Sem o botão de parada na poltrona 05
 Higienizacao da lateral próximo ao piso
 Higienizacao no piso dos bancos 
@@ -1415,13 +1519,13 @@
     <t>https://drive.google.com/open?id=17JDxa1saJEL9-UAKGfpSSrdtLZQqoiVE</t>
   </si>
   <si>
-    <t>Geladeira; borracha solta, sem luz,sem amortecedor e fazer pintura externa</t>
+    <t xml:space="preserve">Geladeira; borracha solta, sem luz,sem amortecedor  e fazer pintura externa </t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1ffz56aGjAeHBxTa_6CzQVxIEXU8zUY0X</t>
   </si>
   <si>
-    <t>ESSA FROTA TEM QUE PASSAR PELO PROCESSO DE HIGIENIZACAO.</t>
+    <t xml:space="preserve">ESSA FROTA TEM QUE PASSAR PELO PROCESSO DE HIGIENIZACAO. </t>
   </si>
   <si>
     <t>Retrovisor direito</t>
@@ -1433,7 +1537,7 @@
     <t>https://drive.google.com/open?id=12R71LmisoZcF-IIR1OdXCQVBiLI4qP3t</t>
   </si>
   <si>
-    <t>Adesivo (fita) vermelho do L/E rasurado 
+    <t>Adesivo (fita)  vermelho do L/E rasurado 
 Retrovisor do L/D braço trincado
 Vidros das duas laterais com arco-íris 
 Porta de acessibilidade sujeira interna 
@@ -1443,8 +1547,8 @@
     <t>https://drive.google.com/open?id=1vWkivd5jHn9D67iiXOGMpqezlGOHOxus, https://drive.google.com/open?id=1TtY5rlb8L2wFRl0j9V3hnjRrAcoPH7R0</t>
   </si>
   <si>
-    <t>Cinto de segurança do motorista sem acionamento 
-Tela de saída do ar do lado direito está solta</t>
+    <t xml:space="preserve">Cinto de segurança do motorista sem acionamento 
+Tela de saída do ar do lado direito está solta </t>
   </si>
   <si>
     <t>1, 2, 5, 6, 9, 10, 11, 12, 13, 17, 18, 19, 21, 22, 23, 28, 29, 30, 33, 34, 37, 38, 41, 42, 44, 45, 46</t>
@@ -1471,16 +1575,16 @@
 Poltrona com marca de Chiclete, 6,7,811,16,19 e 37
 Poltrona 19 está sem a fêmea do cinto 
 Lanterna de leitura das poltronas 32 e 46 queimadas
-Traçar adesivo QRC poltrona 37
+Traçar adesivo QRC poltrona  37
 Piso com marca de Chiclete na altura das poltronas! 18,30 e 34
 chiclete na lateral da poltrona 5
 Insulfilme da poltrona 3 e 45 com furo
 </t>
   </si>
   <si>
-    <t>Pia com o suporte quebrado 
+    <t xml:space="preserve">Pia com o suporte quebrado 
 Porta interna encardida 
-Porta externa furada próximo ao roda pé</t>
+Porta externa furada próximo ao roda pé </t>
   </si>
   <si>
     <t xml:space="preserve">Sem amortecedor e sem luz
@@ -1533,10 +1637,10 @@
     <t>Porta do banheiro com puxador solto e uma parte ds borracha da porta descolada</t>
   </si>
   <si>
-    <t>Pintura na grade metálica</t>
-  </si>
-  <si>
-    <t>Suporte das cortinas das poltronas 11 e 41 quebrado</t>
+    <t xml:space="preserve">Pintura na grade metálica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte das cortinas das poltronas 11 e 41 quebrado </t>
   </si>
   <si>
     <t>Retrovisor direito, Retrovisor esquerdo</t>
@@ -1573,7 +1677,7 @@
     <t>https://drive.google.com/open?id=1g6w6fXj3eOm_3LS7pMaG9ckIyw12GbXt</t>
   </si>
   <si>
-    <t>Retrovisore lad D Ralado</t>
+    <t xml:space="preserve">Retrovisore lad D Ralado </t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=13cOwHjy9cemH316Iygcd2y18qBGBEjNG</t>
@@ -1588,15 +1692,15 @@
     <t>32, 39, 48, 50</t>
   </si>
   <si>
-    <t>Amortecedor do Encosto da poltrona 36 não está acionando na hora de levantar 
-O suporte da tomada 110 que está no porta embrulho nos fundos está sem o pluque</t>
-  </si>
-  <si>
-    <t>Porta papel higiênico está sem a tampa 
-O balcão da pia precisa de reparo de pintura</t>
-  </si>
-  <si>
-    <t>No painel panorâmica tem uma fita de luz de Led, a mesma está solta</t>
+    <t xml:space="preserve">Amortecedor do Encosto da poltrona 36 não está acionando na hora de levantar 
+O suporte da tomada 110 que está no porta embrulho nos fundos está sem o pluque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porta papel higiênico está sem a tampa 
+O balcão da pia precisa de reparo de pintura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No painel panorâmica tem uma fita de luz de Led, a mesma está solta </t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1R16tIw1Be27bxoU6i_ps9-u7if32ZoUI</t>
@@ -1620,7 +1724,7 @@
     <t>5, 9, 17, 33, 37</t>
   </si>
   <si>
-    <t>Esta sem a tampa de proteção</t>
+    <t xml:space="preserve">Esta sem a tampa de proteção </t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=18MPgL1Cr3Q3BAi8iQztoD73X5DJ1lrDt</t>
@@ -1642,6 +1746,78 @@
   </si>
   <si>
     <t>15, 27, 29</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AuLwQ2OVvWXS26LaNnw43IHyBq5cuNrF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1sJU8atfFLCPhZnmlxVnLhiwx_TwYCJZQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral direita próximo a coluna rasura na pintura 
+Primeiro degrau luz do piso queimado </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11jTKRyUcQZ36BScHbsLc9Y50_-RcBGl7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RuUF5Ge5FWKFZ2jQBxI5v2k3ekWf1Gy9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teto de cabine do motorista trincado
+Quebra sol do lado do carona está embolado no seu respectivo local 
+</t>
+  </si>
+  <si>
+    <t>3, 7, 9, 11, 13, 15, 18, 25, 31, 39</t>
+  </si>
+  <si>
+    <t>5, 6, 11, 12, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46</t>
+  </si>
+  <si>
+    <t>34, 44</t>
+  </si>
+  <si>
+    <t>Encosto da poltrona 20 está solto na parte de trás 
+Apoio de pernas com plástico rasgado na 19 e 36</t>
+  </si>
+  <si>
+    <t>0823600</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AedARSVOjcVS-_AB2EiH_Gjy5hxuPKa1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CjvCeghf6zLB6niqqcDYtNqIcpUclsVF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não está funcionando </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1g6mnKkOXbxFnVGpUhzXoF1CuT3SsCGL_</t>
+  </si>
+  <si>
+    <t>16, 18, 22, 24, 26, 29, 35, 37, 39</t>
+  </si>
+  <si>
+    <t>9, 17, 27, 29, 31, 35, 42</t>
+  </si>
+  <si>
+    <t>25, 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta sem a capinha do puxador 
+Cinto de segurança está com corte da poltrona 17
+QRC dessa frota seria o ideal colocar nas laterais. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa das tomadas USB, nas poltronas 8 e 44 está sem
+Primeiro Degrau da escada esta sem a fita ante derrapante
+</t>
+  </si>
+  <si>
+    <t>0875801</t>
   </si>
 </sst>
 </file>
@@ -1727,6 +1903,22 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -1750,29 +1942,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1791,8 +1967,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GI27">
-  <tableColumns count="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ29">
+  <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ônibus (prefixo)"/>
@@ -1984,6 +2160,7 @@
     <tableColumn id="189" xr3:uid="{00000000-0010-0000-0000-0000BD000000}" name="Campo para observações pontuais sobre a GELADEIRA"/>
     <tableColumn id="190" xr3:uid="{00000000-0010-0000-0000-0000BE000000}" name="Campo para fotografias pontuais sobre a GELADEIRA"/>
     <tableColumn id="191" xr3:uid="{00000000-0010-0000-0000-0000BF000000}" name="Escreva abaixo suas observações gerais sobre a vistoria deste carro"/>
+    <tableColumn id="192" xr3:uid="{00000000-0010-0000-0000-0000C0000000}" name="Quilometragem do ônibus"/>
   </tableColumns>
   <tableStyleInfo name="Respostas ao formulário 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2186,15 +2363,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GI27"/>
+  <dimension ref="A1:GJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2227,9 +2404,7 @@
     <col min="44" max="46" width="37.6640625" customWidth="1"/>
     <col min="47" max="47" width="37.44140625" customWidth="1"/>
     <col min="48" max="48" width="37.21875" customWidth="1"/>
-    <col min="49" max="49" width="37.6640625" customWidth="1"/>
-    <col min="50" max="50" width="48" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="37.6640625" customWidth="1"/>
+    <col min="49" max="51" width="37.6640625" customWidth="1"/>
     <col min="52" max="52" width="26" customWidth="1"/>
     <col min="53" max="53" width="28.33203125" customWidth="1"/>
     <col min="54" max="54" width="34.33203125" customWidth="1"/>
@@ -2269,10 +2444,10 @@
     <col min="140" max="146" width="37.6640625" customWidth="1"/>
     <col min="147" max="147" width="34.77734375" customWidth="1"/>
     <col min="148" max="191" width="37.6640625" customWidth="1"/>
-    <col min="192" max="197" width="18.88671875" customWidth="1"/>
+    <col min="192" max="198" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2846,13 +3021,16 @@
       <c r="GI1" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="GJ1" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="2" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>46038.431600706019</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3">
         <v>40846</v>
@@ -2862,10 +3040,10 @@
         <v>46038</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2878,10 +3056,10 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2899,17 +3077,17 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
@@ -2918,7 +3096,7 @@
         <v>46174</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
@@ -2973,7 +3151,7 @@
       <c r="CM2" s="3"/>
       <c r="CN2" s="3"/>
       <c r="CO2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CP2" s="3"/>
       <c r="CQ2" s="3"/>
@@ -2985,7 +3163,7 @@
       <c r="CW2" s="3"/>
       <c r="CX2" s="3"/>
       <c r="CY2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CZ2" s="3"/>
       <c r="DA2" s="3"/>
@@ -3010,23 +3188,23 @@
       <c r="DT2" s="3"/>
       <c r="DU2" s="3"/>
       <c r="DV2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DW2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DX2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DY2" s="3"/>
       <c r="DZ2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EB2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EC2" s="3"/>
       <c r="ED2" s="3"/>
@@ -3058,10 +3236,10 @@
       <c r="FD2" s="3"/>
       <c r="FE2" s="3"/>
       <c r="FF2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FG2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FH2" s="3"/>
       <c r="FI2" s="3"/>
@@ -3089,21 +3267,22 @@
       <c r="GE2" s="3"/>
       <c r="GF2" s="3"/>
       <c r="GG2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="GH2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GI2" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="GJ2" s="3"/>
     </row>
-    <row r="3" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46038.651222905093</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3">
         <v>41206</v>
@@ -3113,10 +3292,10 @@
         <v>46038</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3129,10 +3308,10 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -3163,7 +3342,7 @@
         <v>46204</v>
       </c>
       <c r="AT3" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
@@ -3172,7 +3351,7 @@
         <v>46357</v>
       </c>
       <c r="AY3" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
@@ -3189,7 +3368,7 @@
       <c r="BL3" s="3"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BO3" s="3"/>
       <c r="BP3" s="3"/>
@@ -3257,10 +3436,10 @@
       <c r="DZ3" s="3"/>
       <c r="EA3" s="3"/>
       <c r="EB3" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC3" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED3" s="3"/>
       <c r="EE3" s="3"/>
@@ -3292,7 +3471,7 @@
       <c r="FE3" s="3"/>
       <c r="FF3" s="3"/>
       <c r="FG3" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FH3" s="3"/>
       <c r="FI3" s="3"/>
@@ -3320,21 +3499,22 @@
       <c r="GE3" s="3"/>
       <c r="GF3" s="3"/>
       <c r="GG3" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="GH3" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="GI3" s="3" t="s">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="GJ3" s="3"/>
     </row>
-    <row r="4" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46038.675513969909</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3">
         <v>60136</v>
@@ -3344,13 +3524,13 @@
         <v>46038</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3360,14 +3540,14 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -3390,7 +3570,7 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
@@ -3400,7 +3580,7 @@
         <v>46038</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
@@ -3426,12 +3606,12 @@
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BS4" s="3"/>
       <c r="BT4" s="3"/>
       <c r="BU4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BV4" s="3"/>
       <c r="BW4" s="3"/>
@@ -3466,13 +3646,13 @@
       <c r="CX4" s="3"/>
       <c r="CY4" s="3"/>
       <c r="CZ4" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="DA4" s="3"/>
       <c r="DB4" s="3"/>
       <c r="DC4" s="3"/>
       <c r="DD4" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DE4" s="3"/>
       <c r="DF4" s="3"/>
@@ -3498,7 +3678,7 @@
       <c r="DZ4" s="3"/>
       <c r="EA4" s="3"/>
       <c r="EB4" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="EC4" s="3"/>
       <c r="ED4" s="3"/>
@@ -3559,30 +3739,31 @@
       <c r="GG4" s="3"/>
       <c r="GH4" s="3"/>
       <c r="GI4" s="3" t="s">
-        <v>224</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="GJ4" s="3"/>
     </row>
-    <row r="5" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46039.421507280094</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3">
         <v>40106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5" s="4">
         <v>46039</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3592,19 +3773,19 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -3622,15 +3803,15 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
@@ -3639,7 +3820,7 @@
         <v>46357</v>
       </c>
       <c r="AT5" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -3648,7 +3829,7 @@
         <v>46357</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AZ5" s="3"/>
       <c r="BA5" s="3"/>
@@ -3662,12 +3843,12 @@
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BL5" s="3"/>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO5" s="3"/>
       <c r="BP5" s="3"/>
@@ -3743,7 +3924,7 @@
       <c r="DZ5" s="3"/>
       <c r="EA5" s="3"/>
       <c r="EB5" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="EC5" s="3"/>
       <c r="ED5" s="3"/>
@@ -3776,7 +3957,7 @@
       <c r="FE5" s="3"/>
       <c r="FF5" s="3"/>
       <c r="FG5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FH5" s="3"/>
       <c r="FI5" s="3"/>
@@ -3794,7 +3975,7 @@
       <c r="FU5" s="3"/>
       <c r="FV5" s="3"/>
       <c r="FW5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FX5" s="3"/>
       <c r="FY5" s="3"/>
@@ -3806,36 +3987,37 @@
       <c r="GE5" s="3"/>
       <c r="GF5" s="3"/>
       <c r="GG5" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="GH5" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="GI5" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="GJ5" s="3"/>
     </row>
-    <row r="6" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46039.534052164352</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3">
         <v>60000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E6" s="4">
         <v>46039</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -3848,10 +4030,10 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -3882,7 +4064,7 @@
         <v>46357</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
@@ -3891,7 +4073,7 @@
         <v>46357</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
@@ -3905,14 +4087,14 @@
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL6" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BM6" s="3"/>
       <c r="BN6" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BO6" s="3"/>
       <c r="BP6" s="3"/>
@@ -3932,7 +4114,7 @@
       <c r="CD6" s="3"/>
       <c r="CE6" s="3"/>
       <c r="CF6" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
@@ -3956,14 +4138,14 @@
       <c r="CX6" s="3"/>
       <c r="CY6" s="3"/>
       <c r="CZ6" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="DA6" s="3"/>
       <c r="DB6" s="3"/>
       <c r="DC6" s="3"/>
       <c r="DD6" s="3"/>
       <c r="DE6" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="DF6" s="3"/>
       <c r="DG6" s="3"/>
@@ -3987,12 +4169,12 @@
       <c r="DW6" s="3"/>
       <c r="DX6" s="3"/>
       <c r="DY6" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DZ6" s="3"/>
       <c r="EA6" s="3"/>
       <c r="EB6" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="EC6" s="3"/>
       <c r="ED6" s="3"/>
@@ -4053,15 +4235,16 @@
       <c r="GG6" s="3"/>
       <c r="GH6" s="3"/>
       <c r="GI6" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="GJ6" s="3"/>
     </row>
-    <row r="7" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46039.639637280095</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3">
         <v>30126</v>
@@ -4071,10 +4254,10 @@
         <v>46039</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4087,10 +4270,10 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -4121,7 +4304,7 @@
         <v>46357</v>
       </c>
       <c r="AT7" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
@@ -4133,24 +4316,24 @@
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
       <c r="BG7" s="3"/>
       <c r="BH7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BL7" s="3"/>
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
       <c r="BO7" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BP7" s="3"/>
       <c r="BQ7" s="3"/>
@@ -4186,7 +4369,7 @@
       <c r="CS7" s="3"/>
       <c r="CT7" s="3"/>
       <c r="CU7" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="CV7" s="3"/>
       <c r="CW7" s="3"/>
@@ -4206,7 +4389,7 @@
       <c r="DK7" s="3"/>
       <c r="DL7" s="3"/>
       <c r="DM7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DN7" s="3"/>
       <c r="DO7" s="3"/>
@@ -4220,12 +4403,12 @@
       <c r="DW7" s="3"/>
       <c r="DX7" s="3"/>
       <c r="DY7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DZ7" s="3"/>
       <c r="EA7" s="3"/>
       <c r="EB7" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="EC7" s="3"/>
       <c r="ED7" s="3"/>
@@ -4238,7 +4421,7 @@
       <c r="EK7" s="3"/>
       <c r="EL7" s="3"/>
       <c r="EM7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EN7" s="3"/>
       <c r="EO7" s="3"/>
@@ -4248,7 +4431,7 @@
       <c r="ES7" s="3"/>
       <c r="ET7" s="3"/>
       <c r="EU7" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="EV7" s="3"/>
       <c r="EW7" s="3"/>
@@ -4263,7 +4446,7 @@
       <c r="FF7" s="3"/>
       <c r="FG7" s="3"/>
       <c r="FH7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FI7" s="3"/>
       <c r="FJ7" s="3"/>
@@ -4290,37 +4473,38 @@
       <c r="GE7" s="3"/>
       <c r="GF7" s="3"/>
       <c r="GG7" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="GH7" s="3"/>
       <c r="GI7" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="GJ7" s="3"/>
     </row>
-    <row r="8" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46039.698779247687</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="3">
         <v>60506</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E8" s="4">
         <v>46039</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -4332,10 +4516,10 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -4358,10 +4542,10 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
@@ -4370,7 +4554,7 @@
         <v>46039</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
@@ -4379,7 +4563,7 @@
         <v>46204</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AZ8" s="3"/>
       <c r="BA8" s="3"/>
@@ -4393,12 +4577,12 @@
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
@@ -4426,7 +4610,7 @@
       <c r="CL8" s="3"/>
       <c r="CM8" s="3"/>
       <c r="CN8" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CO8" s="3"/>
       <c r="CP8" s="3"/>
@@ -4442,7 +4626,7 @@
       <c r="CX8" s="3"/>
       <c r="CY8" s="3"/>
       <c r="CZ8" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DA8" s="3"/>
       <c r="DB8" s="3"/>
@@ -4450,7 +4634,7 @@
       <c r="DD8" s="3"/>
       <c r="DE8" s="3"/>
       <c r="DF8" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DG8" s="3"/>
       <c r="DH8" s="3"/>
@@ -4471,12 +4655,12 @@
       <c r="DW8" s="3"/>
       <c r="DX8" s="3"/>
       <c r="DY8" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DZ8" s="3"/>
       <c r="EA8" s="3"/>
       <c r="EB8" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="EC8" s="3"/>
       <c r="ED8" s="3"/>
@@ -4493,13 +4677,13 @@
       <c r="EO8" s="3"/>
       <c r="EP8" s="3"/>
       <c r="EQ8" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="ER8" s="3"/>
       <c r="ES8" s="3"/>
       <c r="ET8" s="3"/>
       <c r="EU8" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="EV8" s="3"/>
       <c r="EW8" s="3"/>
@@ -4541,30 +4725,31 @@
       <c r="GG8" s="3"/>
       <c r="GH8" s="3"/>
       <c r="GI8" s="3" t="s">
-        <v>274</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="GJ8" s="3"/>
     </row>
-    <row r="9" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46036.473079571762</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C9" s="3">
         <v>60626</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E9" s="4">
         <v>46036</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -4577,22 +4762,22 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -4608,7 +4793,7 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
@@ -4621,7 +4806,7 @@
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
@@ -4630,7 +4815,7 @@
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
       <c r="BG9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
@@ -4651,7 +4836,7 @@
       <c r="BX9" s="3"/>
       <c r="BY9" s="3"/>
       <c r="BZ9" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="CA9" s="3"/>
       <c r="CB9" s="3"/>
@@ -4661,7 +4846,7 @@
       <c r="CF9" s="3"/>
       <c r="CG9" s="3"/>
       <c r="CH9" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
@@ -4681,7 +4866,7 @@
       <c r="CX9" s="3"/>
       <c r="CY9" s="3"/>
       <c r="CZ9" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="DA9" s="3"/>
       <c r="DB9" s="3"/>
@@ -4696,10 +4881,10 @@
       <c r="DI9" s="3"/>
       <c r="DJ9" s="3"/>
       <c r="DK9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DL9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DM9" s="3"/>
       <c r="DN9" s="3"/>
@@ -4718,13 +4903,13 @@
       <c r="EA9" s="3"/>
       <c r="EB9" s="3"/>
       <c r="EC9" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="ED9" s="3"/>
       <c r="EE9" s="3"/>
       <c r="EF9" s="3"/>
       <c r="EG9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EH9" s="3"/>
       <c r="EI9" s="3"/>
@@ -4765,7 +4950,7 @@
       <c r="FR9" s="3"/>
       <c r="FS9" s="3"/>
       <c r="FT9" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FU9" s="3"/>
       <c r="FV9" s="3"/>
@@ -4782,33 +4967,34 @@
       <c r="GG9" s="3"/>
       <c r="GH9" s="3"/>
       <c r="GI9" s="3" t="s">
-        <v>283</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="GJ9" s="3"/>
     </row>
-    <row r="10" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46036.6075059375</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C10" s="3">
         <v>60576</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E10" s="4">
         <v>46036</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4820,10 +5006,10 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -4838,10 +5024,10 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
@@ -4851,7 +5037,7 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
@@ -4892,7 +5078,7 @@
       <c r="BX10" s="3"/>
       <c r="BY10" s="3"/>
       <c r="BZ10" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="CA10" s="3"/>
       <c r="CB10" s="3"/>
@@ -4902,7 +5088,7 @@
       <c r="CF10" s="3"/>
       <c r="CG10" s="3"/>
       <c r="CH10" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
@@ -4924,7 +5110,7 @@
       <c r="CX10" s="3"/>
       <c r="CY10" s="3"/>
       <c r="CZ10" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="DA10" s="3"/>
       <c r="DB10" s="3"/>
@@ -4986,7 +5172,7 @@
       <c r="FF10" s="3"/>
       <c r="FG10" s="3"/>
       <c r="FH10" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FI10" s="3"/>
       <c r="FJ10" s="3"/>
@@ -5014,18 +5200,19 @@
       <c r="GF10" s="3"/>
       <c r="GG10" s="3"/>
       <c r="GH10" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="GI10" s="3" t="s">
-        <v>291</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="GJ10" s="3"/>
     </row>
-    <row r="11" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46041.462925879634</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C11" s="3">
         <v>40306</v>
@@ -5035,13 +5222,13 @@
         <v>46041</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5052,13 +5239,13 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -5073,7 +5260,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
@@ -5083,7 +5270,7 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
@@ -5093,7 +5280,7 @@
         <v>46204</v>
       </c>
       <c r="AT11" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
@@ -5102,7 +5289,7 @@
         <v>46204</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="3"/>
@@ -5112,18 +5299,18 @@
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
       <c r="BG11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BO11" s="3"/>
       <c r="BP11" s="3"/>
@@ -5136,10 +5323,10 @@
       <c r="BW11" s="3"/>
       <c r="BX11" s="3"/>
       <c r="BY11" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BZ11" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="CA11" s="3"/>
       <c r="CB11" s="3">
@@ -5151,12 +5338,12 @@
       <c r="CF11" s="3"/>
       <c r="CG11" s="3"/>
       <c r="CH11" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="CL11" s="3"/>
       <c r="CM11" s="3"/>
@@ -5183,7 +5370,7 @@
       <c r="DD11" s="3"/>
       <c r="DE11" s="3"/>
       <c r="DF11" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="DG11" s="3"/>
       <c r="DH11" s="3">
@@ -5206,12 +5393,12 @@
       <c r="DW11" s="3"/>
       <c r="DX11" s="3"/>
       <c r="DY11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DZ11" s="3"/>
       <c r="EA11" s="3"/>
       <c r="EB11" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="EC11" s="3"/>
       <c r="ED11" s="3"/>
@@ -5236,7 +5423,7 @@
       <c r="EW11" s="3"/>
       <c r="EX11" s="3"/>
       <c r="EY11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EZ11" s="3"/>
       <c r="FA11" s="3"/>
@@ -5246,7 +5433,7 @@
       <c r="FE11" s="3"/>
       <c r="FF11" s="3"/>
       <c r="FG11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FH11" s="3"/>
       <c r="FI11" s="3"/>
@@ -5260,7 +5447,7 @@
       <c r="FQ11" s="3"/>
       <c r="FR11" s="3"/>
       <c r="FS11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FT11" s="3"/>
       <c r="FU11" s="3"/>
@@ -5276,34 +5463,35 @@
       <c r="GE11" s="3"/>
       <c r="GF11" s="3"/>
       <c r="GG11" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="GH11" s="3"/>
       <c r="GI11" s="3" t="s">
-        <v>307</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="GJ11" s="3"/>
     </row>
-    <row r="12" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46036.709347604163</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C12" s="3">
         <v>40976</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" s="4">
         <v>46036</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -5316,10 +5504,10 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -5350,7 +5538,7 @@
         <v>46266</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
@@ -5412,11 +5600,11 @@
       <c r="CV12" s="3"/>
       <c r="CW12" s="3"/>
       <c r="CX12" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CY12" s="3"/>
       <c r="CZ12" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DA12" s="3"/>
       <c r="DB12" s="3"/>
@@ -5505,28 +5693,29 @@
       <c r="GG12" s="3"/>
       <c r="GH12" s="3"/>
       <c r="GI12" s="3"/>
+      <c r="GJ12" s="3"/>
     </row>
-    <row r="13" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46037.505034004629</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C13" s="3">
         <v>41146</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E13" s="4">
         <v>46037</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -5539,10 +5728,10 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -5593,7 +5782,7 @@
       <c r="BL13" s="3"/>
       <c r="BM13" s="3"/>
       <c r="BN13" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BO13" s="3"/>
       <c r="BP13" s="3"/>
@@ -5635,7 +5824,7 @@
       <c r="CX13" s="3"/>
       <c r="CY13" s="3"/>
       <c r="CZ13" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DA13" s="3"/>
       <c r="DB13" s="3"/>
@@ -5698,7 +5887,7 @@
       <c r="FE13" s="3"/>
       <c r="FF13" s="3"/>
       <c r="FG13" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FH13" s="3"/>
       <c r="FI13" s="3"/>
@@ -5728,30 +5917,31 @@
       <c r="GG13" s="3"/>
       <c r="GH13" s="3"/>
       <c r="GI13" s="3" t="s">
-        <v>316</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="GJ13" s="3"/>
     </row>
-    <row r="14" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46037.620985416666</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C14" s="3">
         <v>40236</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E14" s="4">
         <v>46037</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -5764,10 +5954,10 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -5777,10 +5967,10 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
@@ -5788,7 +5978,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
@@ -5804,7 +5994,7 @@
         <v>46357</v>
       </c>
       <c r="AT14" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
@@ -5849,7 +6039,7 @@
       <c r="CI14" s="3"/>
       <c r="CJ14" s="3"/>
       <c r="CK14" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CL14" s="3"/>
       <c r="CM14" s="3"/>
@@ -5904,7 +6094,7 @@
       <c r="EF14" s="3"/>
       <c r="EG14" s="3"/>
       <c r="EH14" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EI14" s="3"/>
       <c r="EJ14" s="3"/>
@@ -5959,30 +6149,31 @@
       <c r="GG14" s="3"/>
       <c r="GH14" s="3"/>
       <c r="GI14" s="3" t="s">
-        <v>321</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="GJ14" s="3"/>
     </row>
-    <row r="15" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>46041.554893541666</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="3">
         <v>50126</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E15" s="4">
         <v>46041</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -5995,14 +6186,14 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -6023,7 +6214,7 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
@@ -6033,7 +6224,7 @@
         <v>46204</v>
       </c>
       <c r="AT15" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
@@ -6042,7 +6233,7 @@
         <v>46054</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AZ15" s="3"/>
       <c r="BA15" s="3"/>
@@ -6056,12 +6247,12 @@
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="BL15" s="3"/>
       <c r="BM15" s="3"/>
       <c r="BN15" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BO15" s="3"/>
       <c r="BP15" s="3"/>
@@ -6107,13 +6298,13 @@
       <c r="CX15" s="3"/>
       <c r="CY15" s="3"/>
       <c r="CZ15" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DA15" s="3"/>
       <c r="DB15" s="3"/>
       <c r="DC15" s="3"/>
       <c r="DD15" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="DE15" s="3"/>
       <c r="DF15" s="3"/>
@@ -6169,16 +6360,16 @@
       <c r="FD15" s="3"/>
       <c r="FE15" s="3"/>
       <c r="FF15" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FG15" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FH15" s="3"/>
       <c r="FI15" s="3"/>
       <c r="FJ15" s="3"/>
       <c r="FK15" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FL15" s="3"/>
       <c r="FM15" s="3"/>
@@ -6187,10 +6378,10 @@
       <c r="FP15" s="3"/>
       <c r="FQ15" s="3"/>
       <c r="FR15" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FS15" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="FT15" s="3"/>
       <c r="FU15" s="3"/>
@@ -6208,30 +6399,31 @@
       <c r="GG15" s="3"/>
       <c r="GH15" s="3"/>
       <c r="GI15" s="3" t="s">
-        <v>331</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="GJ15" s="3"/>
     </row>
-    <row r="16" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>46037.692718842591</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C16" s="3">
         <v>60516</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E16" s="4">
         <v>46037</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -6244,23 +6436,23 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
@@ -6282,12 +6474,12 @@
         <v>46357</v>
       </c>
       <c r="AT16" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
-      <c r="AX16" s="4"/>
+      <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
@@ -6344,7 +6536,7 @@
       <c r="CX16" s="3"/>
       <c r="CY16" s="3"/>
       <c r="CZ16" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="DA16" s="3"/>
       <c r="DB16" s="3"/>
@@ -6371,7 +6563,7 @@
       <c r="DW16" s="3"/>
       <c r="DX16" s="3"/>
       <c r="DY16" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DZ16" s="3"/>
       <c r="EA16" s="3"/>
@@ -6435,52 +6627,52 @@
       <c r="GG16" s="3"/>
       <c r="GH16" s="3"/>
       <c r="GI16" s="3" t="s">
-        <v>336</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="GJ16" s="3"/>
     </row>
-    <row r="17" spans="1:191" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>46041.683453483798</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="3">
         <v>60586</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" s="4">
         <v>46041</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AS17" s="4">
         <v>46357</v>
       </c>
       <c r="AT17" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="AX17" s="4"/>
+        <v>340</v>
+      </c>
       <c r="BN17" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="CK17" s="3">
         <v>4</v>
@@ -6492,976 +6684,1078 @@
         <v>2</v>
       </c>
       <c r="DG17" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="GI17" s="3" t="s">
-        <v>342</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="GJ17" s="3"/>
     </row>
-    <row r="18" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>46042.459398148145</v>
+        <v>46042.45939236111</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="3">
         <v>40886</v>
       </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="4">
         <v>46042</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K18" t="s">
         <v>344</v>
       </c>
+      <c r="K18" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="R18" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF18" s="3"/>
-      <c r="AN18" t="s">
         <v>347</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="AS18" s="4">
         <v>46174</v>
       </c>
       <c r="AT18" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AX18" s="4">
         <v>46174</v>
       </c>
-      <c r="AY18" t="s">
-        <v>349</v>
+      <c r="AY18" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="BN18" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="BZ18" t="s">
         <v>351</v>
       </c>
-      <c r="CK18" s="3"/>
-      <c r="CO18" s="3"/>
-      <c r="CZ18" t="s">
+      <c r="BZ18" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="DC18" s="3"/>
-      <c r="DD18" t="s">
+      <c r="CZ18" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="DG18" s="3"/>
-      <c r="DY18" t="s">
-        <v>196</v>
-      </c>
-      <c r="EB18" t="s">
+      <c r="DD18" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="FG18" t="s">
-        <v>196</v>
+      <c r="DY18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB18" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FG18" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="GI18" s="3" t="s">
-        <v>355</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="GJ18" s="3"/>
     </row>
-    <row r="19" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>46042.597199074073</v>
+        <v>46042.597203530095</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="3">
         <v>20716</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E19" s="4">
         <v>46042</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>194</v>
+      </c>
       <c r="R19" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF19" s="3"/>
+        <v>358</v>
+      </c>
       <c r="AS19" s="4">
         <v>46266</v>
       </c>
       <c r="AT19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="AX19" s="4"/>
-      <c r="BN19" s="3"/>
-      <c r="BZ19" t="s">
         <v>359</v>
       </c>
-      <c r="CF19" t="s">
+      <c r="BZ19" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="CK19" s="3"/>
-      <c r="CL19" t="s">
+      <c r="CF19" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="CM19" t="s">
-        <v>304</v>
-      </c>
-      <c r="CO19" s="3"/>
-      <c r="CW19" t="s">
+      <c r="CL19" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="CZ19">
+      <c r="CM19" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="CW19" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="CZ19" s="3">
         <v>15</v>
       </c>
-      <c r="DB19">
+      <c r="DB19" s="3">
         <v>14</v>
       </c>
-      <c r="DC19" s="3"/>
-      <c r="DD19" t="s">
-        <v>363</v>
-      </c>
-      <c r="DG19" s="3"/>
-      <c r="DI19" t="s">
+      <c r="DD19" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="DJ19" t="s">
-        <v>280</v>
-      </c>
-      <c r="DK19" t="s">
-        <v>196</v>
-      </c>
-      <c r="EZ19" t="s">
-        <v>196</v>
-      </c>
-      <c r="FD19" t="s">
-        <v>196</v>
-      </c>
-      <c r="FH19" t="s">
-        <v>196</v>
-      </c>
-      <c r="FL19" t="s">
-        <v>196</v>
-      </c>
-      <c r="FT19" t="s">
-        <v>196</v>
-      </c>
-      <c r="FX19" t="s">
-        <v>196</v>
-      </c>
-      <c r="GB19" t="s">
-        <v>196</v>
+      <c r="DI19" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="DJ19" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="DK19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EZ19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FH19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FL19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FT19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FX19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GB19" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="GI19" s="3" t="s">
-        <v>365</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="GJ19" s="3"/>
     </row>
-    <row r="20" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>46042.718807870369</v>
+        <v>46042.718810532402</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3">
         <v>40186</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" s="4">
         <v>46042</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="J20" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" t="s">
-        <v>344</v>
-      </c>
-      <c r="L20" t="s">
         <v>367</v>
       </c>
-      <c r="Q20" t="s">
-        <v>292</v>
+      <c r="J20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF20" s="3"/>
-      <c r="AH20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN20" t="s">
         <v>370</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AH20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN20" s="3" t="s">
         <v>371</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="AS20" s="4">
         <v>46174</v>
       </c>
       <c r="AT20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>196</v>
+        <v>373</v>
+      </c>
+      <c r="AW20" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="AX20" s="4">
         <v>46388</v>
       </c>
-      <c r="AY20" t="s">
-        <v>373</v>
-      </c>
-      <c r="BK20" t="s">
+      <c r="AY20" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="BL20" t="s">
+      <c r="BK20" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="BL20" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="BN20" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="BW20" t="s">
         <v>377</v>
       </c>
-      <c r="BY20">
+      <c r="BW20" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="BY20" s="3">
         <v>53</v>
       </c>
-      <c r="BZ20" t="s">
-        <v>378</v>
-      </c>
-      <c r="CB20" t="s">
+      <c r="BZ20" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="CH20" t="s">
+      <c r="CB20" s="3" t="s">
         <v>380</v>
       </c>
+      <c r="CH20" s="3" t="s">
+        <v>381</v>
+      </c>
       <c r="CK20" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CL20" t="s">
         <v>382</v>
       </c>
-      <c r="CM20" t="s">
+      <c r="CL20" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="CO20" s="3"/>
-      <c r="CZ20" t="s">
+      <c r="CM20" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="DA20" t="s">
-        <v>352</v>
-      </c>
-      <c r="DC20" s="3"/>
-      <c r="DD20" t="s">
+      <c r="CZ20" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="DG20" s="3"/>
-      <c r="DI20" t="s">
+      <c r="DA20" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DD20" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="DL20" t="s">
-        <v>196</v>
-      </c>
-      <c r="DM20" t="s">
-        <v>196</v>
-      </c>
-      <c r="EB20" t="s">
+      <c r="DI20" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="EC20" t="s">
+      <c r="DL20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="DM20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB20" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="FI20" t="s">
-        <v>196</v>
-      </c>
-      <c r="FQ20" t="s">
-        <v>196</v>
-      </c>
-      <c r="FR20" t="s">
-        <v>196</v>
-      </c>
-      <c r="FS20" t="s">
-        <v>196</v>
-      </c>
-      <c r="FU20" t="s">
-        <v>196</v>
-      </c>
-      <c r="FW20" t="s">
-        <v>196</v>
-      </c>
-      <c r="GD20" t="s">
-        <v>196</v>
+      <c r="EC20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="FI20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FQ20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FR20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FS20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FU20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FW20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GD20" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="GI20" s="3" t="s">
-        <v>389</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="GJ20" s="3"/>
     </row>
-    <row r="21" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>46043.420578703706</v>
+        <v>46043.420574351854</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3">
         <v>20616</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E21" s="4">
         <v>46043</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="U21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF21" s="3"/>
-      <c r="AN21" t="s">
         <v>392</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="AS21" s="4">
         <v>46327</v>
       </c>
       <c r="AT21" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="AX21" s="4"/>
-      <c r="BK21" t="s">
         <v>394</v>
       </c>
-      <c r="BN21" s="3"/>
-      <c r="BX21" t="s">
+      <c r="BK21" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="BZ21" t="s">
+      <c r="BX21" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="CH21" t="s">
-        <v>280</v>
+      <c r="BZ21" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="CH21" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="CK21" s="3">
         <v>17</v>
       </c>
-      <c r="CL21" t="s">
-        <v>397</v>
-      </c>
-      <c r="CO21" s="3"/>
-      <c r="DB21">
+      <c r="CL21" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="DB21" s="3">
         <v>2</v>
       </c>
-      <c r="DC21" s="3"/>
-      <c r="DD21">
+      <c r="DD21" s="3">
         <v>5</v>
       </c>
-      <c r="DG21" s="3"/>
-      <c r="DI21" t="s">
-        <v>364</v>
-      </c>
-      <c r="DJ21" t="s">
-        <v>280</v>
-      </c>
-      <c r="DK21" t="s">
-        <v>196</v>
-      </c>
-      <c r="EB21" t="s">
-        <v>398</v>
-      </c>
-      <c r="ER21" t="s">
-        <v>196</v>
-      </c>
-      <c r="ES21" t="s">
-        <v>196</v>
-      </c>
-      <c r="EU21" t="s">
+      <c r="DI21" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="DJ21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="DK21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB21" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="EV21" t="s">
+      <c r="ER21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ES21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU21" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="FH21" t="s">
-        <v>196</v>
-      </c>
-      <c r="FL21" t="s">
-        <v>196</v>
-      </c>
-      <c r="FT21" t="s">
-        <v>196</v>
-      </c>
-      <c r="GB21" t="s">
-        <v>196</v>
-      </c>
-      <c r="GG21" t="s">
+      <c r="EV21" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="GH21" t="s">
+      <c r="FH21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FL21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FT21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GB21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG21" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="GH21" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="GI21" s="3" t="s">
-        <v>403</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="GJ21" s="3"/>
     </row>
-    <row r="22" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>46043.537928240738</v>
+        <v>46043.537930543986</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3">
         <v>30126</v>
       </c>
-      <c r="D22" s="3"/>
       <c r="E22" s="4">
         <v>46043</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BH22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK22" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BN22" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="BX22" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="BY22" s="3">
+        <v>20</v>
+      </c>
+      <c r="BZ22" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE22" s="3">
+        <v>19</v>
+      </c>
+      <c r="CU22" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="CZ22" s="3">
+        <v>37</v>
+      </c>
+      <c r="DD22" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DE22" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="DI22" s="3">
+        <v>5</v>
+      </c>
+      <c r="DJ22" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="DL22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB22" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="ES22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ET22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU22" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="EZ22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FH22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FT22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG22" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="GI22" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="GJ22" s="3"/>
+    </row>
+    <row r="23" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>46043.704643310186</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="K22" t="s">
-        <v>344</v>
-      </c>
-      <c r="L22" t="s">
-        <v>404</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="U22" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF22" s="3"/>
-      <c r="AN22" t="s">
-        <v>407</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>408</v>
-      </c>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="7"/>
-      <c r="AX22" s="4"/>
-      <c r="BH22" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>409</v>
-      </c>
-      <c r="BN22" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>411</v>
-      </c>
-      <c r="BY22">
-        <v>20</v>
-      </c>
-      <c r="BZ22" t="s">
-        <v>412</v>
-      </c>
-      <c r="CE22">
-        <v>19</v>
-      </c>
-      <c r="CK22" s="3"/>
-      <c r="CO22" s="3"/>
-      <c r="CU22" t="s">
-        <v>255</v>
-      </c>
-      <c r="CZ22">
-        <v>37</v>
-      </c>
-      <c r="DC22" s="3"/>
-      <c r="DD22" t="s">
-        <v>413</v>
-      </c>
-      <c r="DE22" t="s">
-        <v>414</v>
-      </c>
-      <c r="DG22" s="3"/>
-      <c r="DI22">
-        <v>5</v>
-      </c>
-      <c r="DJ22" t="s">
-        <v>415</v>
-      </c>
-      <c r="DL22" t="s">
-        <v>196</v>
-      </c>
-      <c r="EB22" t="s">
-        <v>416</v>
-      </c>
-      <c r="ES22" t="s">
-        <v>196</v>
-      </c>
-      <c r="ET22" t="s">
-        <v>196</v>
-      </c>
-      <c r="EU22" t="s">
-        <v>417</v>
-      </c>
-      <c r="EZ22" t="s">
-        <v>196</v>
-      </c>
-      <c r="FH22" t="s">
-        <v>196</v>
-      </c>
-      <c r="FT22" t="s">
-        <v>196</v>
-      </c>
-      <c r="GG22" t="s">
-        <v>418</v>
-      </c>
-      <c r="GI22" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>46043.704641203702</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C23" s="3">
         <v>20546</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E23" s="4">
         <v>46043</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF23" s="3"/>
-      <c r="AN23" t="s">
         <v>422</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AN23" s="3" t="s">
         <v>423</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="AS23" s="4">
         <v>46266</v>
       </c>
       <c r="AT23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="AX23" s="4"/>
-      <c r="BD23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BK23" t="s">
         <v>425</v>
       </c>
-      <c r="BM23" t="s">
-        <v>196</v>
+      <c r="BD23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK23" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="BM23" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="BN23" s="3">
         <v>46</v>
       </c>
-      <c r="BY23">
+      <c r="BY23" s="3">
         <v>22</v>
       </c>
-      <c r="BZ23" t="s">
-        <v>426</v>
-      </c>
-      <c r="CK23" s="3"/>
-      <c r="CL23">
+      <c r="BZ23" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="CL23" s="3">
         <v>1</v>
       </c>
       <c r="CO23" s="3">
         <v>43</v>
       </c>
-      <c r="CZ23" t="s">
-        <v>427</v>
-      </c>
-      <c r="DC23" s="3"/>
-      <c r="DD23">
+      <c r="CZ23" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="DD23" s="3">
         <v>13</v>
       </c>
-      <c r="DG23" s="3"/>
-      <c r="DJ23">
+      <c r="DJ23" s="3">
         <v>11</v>
       </c>
-      <c r="EB23" t="s">
-        <v>428</v>
-      </c>
-      <c r="EM23" t="s">
-        <v>196</v>
-      </c>
-      <c r="EU23" t="s">
+      <c r="EB23" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="FD23" t="s">
-        <v>196</v>
-      </c>
-      <c r="GG23" t="s">
+      <c r="EM23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU23" s="3" t="s">
         <v>430</v>
       </c>
+      <c r="FD23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG23" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="GI23" s="3" t="s">
-        <v>431</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="GJ23" s="3"/>
     </row>
-    <row r="24" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>46044.436192129629</v>
+        <v>46044.541907696759</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" s="3">
-        <v>21116</v>
+        <v>41116</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E24" s="4">
         <v>46044</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="L24" t="s">
-        <v>432</v>
+        <v>194</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="AF24" s="3"/>
-      <c r="AH24" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN24" t="s">
         <v>435</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="AS24" s="4">
         <v>46327</v>
       </c>
       <c r="AT24" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AX24" s="4">
         <v>46327</v>
       </c>
-      <c r="AY24" t="s">
-        <v>437</v>
+      <c r="AY24" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="BN24" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="BW24">
+        <v>439</v>
+      </c>
+      <c r="BW24" s="3">
         <v>10</v>
       </c>
-      <c r="BY24">
+      <c r="BY24" s="3">
         <v>51</v>
       </c>
-      <c r="BZ24">
+      <c r="BZ24" s="3">
         <v>51</v>
       </c>
-      <c r="CK24" s="3"/>
-      <c r="CO24" s="3"/>
-      <c r="DC24" s="3"/>
-      <c r="DG24" s="3"/>
-      <c r="EB24" t="s">
-        <v>439</v>
-      </c>
-      <c r="GI24" s="3"/>
+      <c r="EB24" s="3" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="25" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>46044.525000000001</v>
+        <v>46044.542822488424</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" s="3">
-        <v>40386</v>
+        <v>40836</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E25" s="4">
         <v>46044</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="L25" t="s">
-        <v>404</v>
+        <v>194</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="AF25" s="3"/>
-      <c r="AN25" t="s">
         <v>442</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="AS25" s="4">
         <v>46174</v>
       </c>
       <c r="AT25" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AX25" s="4">
         <v>46357</v>
       </c>
-      <c r="AY25" t="s">
-        <v>444</v>
+      <c r="AY25" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="BN25" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="BW25">
+        <v>446</v>
+      </c>
+      <c r="BW25" s="3">
         <v>36</v>
       </c>
-      <c r="CJ25">
+      <c r="CJ25" s="3">
         <v>37</v>
       </c>
-      <c r="CK25" s="3"/>
-      <c r="CO25" s="3"/>
-      <c r="CR25">
+      <c r="CR25" s="3">
         <v>54</v>
       </c>
-      <c r="CS25">
+      <c r="CS25" s="3">
         <v>54</v>
       </c>
-      <c r="CU25" t="s">
-        <v>446</v>
-      </c>
-      <c r="DC25" s="3"/>
-      <c r="DG25" s="3"/>
-      <c r="EB25" t="s">
+      <c r="CU25" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="EG25" t="s">
-        <v>196</v>
-      </c>
-      <c r="EU25" t="s">
+      <c r="EB25" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="EG25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU25" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="GI25" s="3" t="s">
-        <v>449</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="GJ25" s="3"/>
     </row>
-    <row r="26" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>46044.671724537038</v>
+        <v>46044.67172864583</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" s="3">
         <v>21076</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E26" s="4">
         <v>46044</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>194</v>
+      </c>
       <c r="R26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="AF26" s="3"/>
+        <v>452</v>
+      </c>
       <c r="AS26" s="4">
         <v>46327</v>
       </c>
       <c r="AT26" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="AX26" s="4"/>
+        <v>453</v>
+      </c>
       <c r="BN26" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="BV26">
+        <v>454</v>
+      </c>
+      <c r="BV26" s="3">
         <v>1</v>
       </c>
-      <c r="BY26">
+      <c r="BY26" s="3">
         <v>45</v>
       </c>
-      <c r="BZ26" t="s">
-        <v>454</v>
+      <c r="BZ26" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="CK26" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="CO26" s="3"/>
-      <c r="CT26">
+        <v>456</v>
+      </c>
+      <c r="CT26" s="3">
         <v>19</v>
       </c>
-      <c r="DC26" s="3"/>
-      <c r="DD26" t="s">
-        <v>456</v>
-      </c>
-      <c r="DG26" s="3"/>
-      <c r="EG26" t="s">
-        <v>196</v>
-      </c>
-      <c r="EU26" t="s">
+      <c r="DD26" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="GI26" s="3"/>
+      <c r="EG26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU26" s="3" t="s">
+        <v>458</v>
+      </c>
     </row>
-    <row r="27" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>46045.668981481482</v>
+        <v>46045.66898396991</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C27" s="3">
         <v>40816</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E27" s="4">
         <v>46045</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>194</v>
+      </c>
       <c r="R27" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF27" s="3"/>
+        <v>460</v>
+      </c>
       <c r="AS27" s="4">
         <v>46174</v>
       </c>
       <c r="AT27" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="AX27" s="4"/>
-      <c r="AY27" t="s">
         <v>461</v>
       </c>
+      <c r="AY27" s="7" t="s">
+        <v>462</v>
+      </c>
       <c r="BN27" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="CK27" s="3"/>
+        <v>463</v>
+      </c>
       <c r="CO27" s="3">
         <v>49</v>
       </c>
-      <c r="CS27">
+      <c r="CS27" s="3">
         <v>54</v>
       </c>
-      <c r="CU27" t="s">
-        <v>463</v>
-      </c>
-      <c r="CZ27" t="s">
+      <c r="CU27" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="DC27" s="3"/>
-      <c r="DG27" s="3"/>
-      <c r="GI27" s="3"/>
+      <c r="CZ27" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>46046.530134432869</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20516</v>
+      </c>
+      <c r="E28" s="4">
+        <v>46046</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO28" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AT28" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="BK28" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="BN28" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="BV28" s="3">
+        <v>45</v>
+      </c>
+      <c r="CC28" s="3">
+        <v>29</v>
+      </c>
+      <c r="CF28" s="3">
+        <v>20</v>
+      </c>
+      <c r="CJ28" s="3">
+        <v>36</v>
+      </c>
+      <c r="CK28" s="3">
+        <v>23</v>
+      </c>
+      <c r="CZ28" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="DE28" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="EB28" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="FT28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GJ28" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>46046.529532129629</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20526</v>
+      </c>
+      <c r="E29" s="4">
+        <v>46046</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT29" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="BM29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN29" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="BX29" s="3">
+        <v>35</v>
+      </c>
+      <c r="BZ29" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="CC29" s="3">
+        <v>17</v>
+      </c>
+      <c r="CL29" s="3">
+        <v>32</v>
+      </c>
+      <c r="CZ29" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="DD29" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="EB29" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="FT29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FX29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GI29" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="GJ29" s="6" t="s">
+        <v>486</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7524,48 +7818,56 @@
     <hyperlink ref="R17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="S17" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="AT17" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="R18" r:id="rId60" xr:uid="{62D086AE-3502-4147-B614-FF114A88B399}"/>
-    <hyperlink ref="S18" r:id="rId61" xr:uid="{44FAE5AF-C976-46CC-9A72-BCDD90EF84F7}"/>
-    <hyperlink ref="AT18" r:id="rId62" xr:uid="{DAA3B18F-E7B3-4884-BDE1-38677182A1E3}"/>
-    <hyperlink ref="AY18" r:id="rId63" xr:uid="{19F9BB88-CA41-4F56-8D55-2F1AACCC4A05}"/>
-    <hyperlink ref="R19" r:id="rId64" xr:uid="{E12010A8-9D71-426F-86DA-62B58CE5D72E}"/>
-    <hyperlink ref="S19" r:id="rId65" xr:uid="{99F276CE-BF6E-4E44-AB76-3060E43510AB}"/>
-    <hyperlink ref="AT19" r:id="rId66" xr:uid="{4C73F48E-7435-4CB6-BABE-526035351BD1}"/>
-    <hyperlink ref="R20" r:id="rId67" xr:uid="{1DDB0C10-3AFF-4291-BB6C-CBED10A0B5E6}"/>
-    <hyperlink ref="S20" r:id="rId68" xr:uid="{BCED7EB7-667B-44BC-A558-428C4D7F8051}"/>
-    <hyperlink ref="AT20" r:id="rId69" xr:uid="{584ACD59-AC8C-469B-B398-626E6E0DD8E3}"/>
-    <hyperlink ref="AY20" r:id="rId70" xr:uid="{B99BC261-F73A-4967-A200-9D92E9E3D8C7}"/>
-    <hyperlink ref="EC20" r:id="rId71" xr:uid="{96B4E1C2-4630-41B9-A23E-B3053D86F361}"/>
-    <hyperlink ref="R21" r:id="rId72" xr:uid="{B9CA489F-0920-4FF2-87A0-7B50566AB88E}"/>
-    <hyperlink ref="S21" r:id="rId73" xr:uid="{66790E52-C13F-48EE-99A1-01D6501A21EE}"/>
-    <hyperlink ref="AT21" r:id="rId74" xr:uid="{6F53FD4C-2D05-4C38-8C2A-005AF1D1A3BB}"/>
-    <hyperlink ref="EV21" r:id="rId75" xr:uid="{F6DD32CB-1697-45A5-8F79-C793A4005EFD}"/>
-    <hyperlink ref="GH21" r:id="rId76" xr:uid="{1F3D2308-6492-4D64-BBFB-C384C4BDE90C}"/>
-    <hyperlink ref="R22" r:id="rId77" xr:uid="{17B6A508-DD1E-4348-9CD3-B7E990837EC4}"/>
-    <hyperlink ref="S22" r:id="rId78" xr:uid="{04B7426A-6117-4E4E-ABFE-3D8586D6083F}"/>
-    <hyperlink ref="R23" r:id="rId79" xr:uid="{9EC77335-8403-41C1-9AAE-D6AC0E595DF8}"/>
-    <hyperlink ref="S23" r:id="rId80" xr:uid="{E6542927-0170-42DF-8DD9-005EEB39DBD8}"/>
-    <hyperlink ref="AO23" r:id="rId81" xr:uid="{EA35DD7B-23CA-4F03-9626-BF1B04250A07}"/>
-    <hyperlink ref="AT23" r:id="rId82" xr:uid="{3CD5967C-3D0F-4E64-95C2-E74F7720D32B}"/>
-    <hyperlink ref="R24" r:id="rId83" xr:uid="{26A2DE2E-1BAE-44D0-9401-D5D95111D1E0}"/>
-    <hyperlink ref="S24" r:id="rId84" xr:uid="{D3A9CC6C-3DE2-4B86-963B-ECDE7ECDF751}"/>
-    <hyperlink ref="AT24" r:id="rId85" xr:uid="{426C67D9-018E-4D99-8B10-0F8E1BDF4634}"/>
-    <hyperlink ref="AY24" r:id="rId86" xr:uid="{52558C85-2B2D-4138-B29D-FC9EDA27941B}"/>
-    <hyperlink ref="R25" r:id="rId87" xr:uid="{5DEED717-F8DC-43CD-B745-F13F2B10DA9E}"/>
-    <hyperlink ref="S25" r:id="rId88" xr:uid="{2F893A27-3209-4FE3-86C3-EF99D16368A0}"/>
-    <hyperlink ref="AT25" r:id="rId89" xr:uid="{B0BE96EE-79F5-421B-86A7-712EEDA48C6E}"/>
-    <hyperlink ref="AY25" r:id="rId90" xr:uid="{767C0122-5309-41EF-B04B-FC0686B931C1}"/>
-    <hyperlink ref="R26" r:id="rId91" xr:uid="{34EF4B34-FAF0-4204-A0A8-769C24B0B167}"/>
-    <hyperlink ref="S26" r:id="rId92" xr:uid="{501C8042-1E11-4024-BEDE-380DD787E580}"/>
-    <hyperlink ref="AT26" r:id="rId93" xr:uid="{FBD40799-F773-46F0-B7D1-965C795AAB2A}"/>
-    <hyperlink ref="R27" r:id="rId94" xr:uid="{F4853AE9-AB33-4912-A998-565D877B5F4F}"/>
-    <hyperlink ref="S27" r:id="rId95" xr:uid="{D1F6C8B1-8814-4CCB-9AF5-BA31EF395C85}"/>
-    <hyperlink ref="AT27" r:id="rId96" xr:uid="{456F0A9E-4DF5-4B2C-9371-90770E165FA4}"/>
-    <hyperlink ref="AY27" r:id="rId97" xr:uid="{46102FF3-5EF5-49DC-A57E-CF97B41E481B}"/>
+    <hyperlink ref="R18" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="S18" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AT18" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AY18" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="R19" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="S19" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AT19" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="R20" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="S20" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="AT20" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AY20" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="EC20" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="R21" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="S21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AT21" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="EV21" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="GH21" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="R22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="S22" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="R23" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="S23" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AO23" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AT23" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="R24" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="S24" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AT24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AY24" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="R25" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="S25" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AT25" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AY25" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="R26" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="S26" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AT26" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="R27" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="S27" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AT27" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AY27" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="R28" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="S28" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="AO28" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="AT28" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="R29" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="S29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="AT29" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId105"/>
   <tableParts count="1">
-    <tablePart r:id="rId98"/>
+    <tablePart r:id="rId106"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB74B9DC-4E82-49EA-BF08-501DBD61CFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F320DF3-E9B5-4359-BF24-6094C26904DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -45,6 +46,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -58,6 +60,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -71,6 +74,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -84,6 +88,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -97,6 +102,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -110,6 +116,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -121,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="512">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1819,6 +1826,84 @@
   <si>
     <t>0875801</t>
   </si>
+  <si>
+    <t>https://drive.google.com/open?id=1W-f1NOBU11cvQG4VV9OBs2VHrL6TbUu-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HJDlOaAXRf4WnJHIE9y1NdOLOx1r2eHQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gtPvdEiIDxz1G3NLk7PC8OHRSLCRsaTn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zMOhmxbOas20C4IreJYu8XNdNfHNE-9t</t>
+  </si>
+  <si>
+    <t>2, 6, 10, 11, 19, 36, 53, 54, 55, 57</t>
+  </si>
+  <si>
+    <t>9, 25, 34</t>
+  </si>
+  <si>
+    <t>29, 30, 36, 37</t>
+  </si>
+  <si>
+    <t>15, 16, 29, 30, 43, 45, 46, 47, 48</t>
+  </si>
+  <si>
+    <t>1, 2, 29, 43, 44, 46</t>
+  </si>
+  <si>
+    <t>2, 4, 6, 8, 16</t>
+  </si>
+  <si>
+    <t>Espelho manchado
+Porta do banheiro com um furo na parte de baixo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1k2F_zU1oPMzTIq4YFGuFmGjOKHzy8LHA, https://drive.google.com/open?id=13qe4pc3slXMwVq-waNTHvN239cUDGKNe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_MZvb9v1_LyDvObeJuWn76kPxx1CCHCI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yKF5_T1JKN3l-XNkF4unEfFMJqgkRN7F</t>
+  </si>
+  <si>
+    <t>Grade do abastecimento de água para toilette está com falha nas divisórias
+Braço do retrovisor pintura gasta 
+Luz do quarto degrau não acende</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-EIZxotkh4w2UBJUYk66wTqL12I0EKv5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Q3XmF6vf3yiPd2f2-aJM8ApFWFpciH8y</t>
+  </si>
+  <si>
+    <t>USB no banco do segundo motorista não tem conexão</t>
+  </si>
+  <si>
+    <t>6, 12, 14, 22, 27, 30, 36, 47, 48, 49, 50, 51, 54</t>
+  </si>
+  <si>
+    <t>23, 38, 41, 43, 45</t>
+  </si>
+  <si>
+    <t>22, 26</t>
+  </si>
+  <si>
+    <t>17, 18</t>
+  </si>
+  <si>
+    <t>9, 10, 37</t>
+  </si>
+  <si>
+    <t>Insulfilme como bolhas</t>
+  </si>
+  <si>
+    <t>Arco íris nas por falta de polimento.</t>
+  </si>
 </sst>
 </file>
 
@@ -1827,7 +1912,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1852,6 +1937,13 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1903,22 +1995,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -1942,13 +2018,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1967,7 +2059,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ31">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2367,11 +2459,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ29"/>
+  <dimension ref="A1:GJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7755,6 +7847,190 @@
       </c>
       <c r="GJ29" s="6" t="s">
         <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>46046.673842592594</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="3">
+        <v>50146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="4">
+        <v>46046</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AS30" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT30" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX30">
+        <v>46357</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX30" s="3"/>
+      <c r="BZ30" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="CC30" s="3"/>
+      <c r="CL30" s="3"/>
+      <c r="CS30">
+        <v>2</v>
+      </c>
+      <c r="CU30" t="s">
+        <v>494</v>
+      </c>
+      <c r="CZ30" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="DC30" t="s">
+        <v>496</v>
+      </c>
+      <c r="DD30" s="3"/>
+      <c r="EB30" s="3"/>
+      <c r="EP30" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU30" t="s">
+        <v>497</v>
+      </c>
+      <c r="EV30" t="s">
+        <v>498</v>
+      </c>
+      <c r="FT30" s="3"/>
+      <c r="FX30" s="3"/>
+      <c r="GI30" s="3"/>
+      <c r="GJ30" s="6">
+        <v>800905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>46048.421782407408</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="3">
+        <v>40296</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="4">
+        <v>46048</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" t="s">
+        <v>405</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE31" s="3"/>
+      <c r="AH31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AT31" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="AX31">
+        <v>46048</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>503</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>504</v>
+      </c>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="BX31" s="3"/>
+      <c r="BY31">
+        <v>22</v>
+      </c>
+      <c r="BZ31" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="CC31" s="3"/>
+      <c r="CL31" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="CO31">
+        <v>55</v>
+      </c>
+      <c r="CW31" t="s">
+        <v>508</v>
+      </c>
+      <c r="CZ31" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="DD31" s="3">
+        <v>5</v>
+      </c>
+      <c r="EB31" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="FT31" s="3"/>
+      <c r="FX31" s="3"/>
+      <c r="GI31" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="GJ31" s="6">
+        <v>604656</v>
       </c>
     </row>
   </sheetData>
@@ -7863,11 +8139,19 @@
     <hyperlink ref="R29" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="S29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="AT29" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="R30" r:id="rId105" xr:uid="{2F517397-0881-4EDF-B780-381E5AC9D14C}"/>
+    <hyperlink ref="S30" r:id="rId106" xr:uid="{4052E7B2-B777-46CD-B258-420E2AFAF583}"/>
+    <hyperlink ref="AT30" r:id="rId107" xr:uid="{C0B7F6CF-E531-4430-B0EF-FE17CBC050CA}"/>
+    <hyperlink ref="AY30" r:id="rId108" xr:uid="{97D05C49-3390-48BF-A97C-4F321AD06C3C}"/>
+    <hyperlink ref="R31" r:id="rId109" xr:uid="{DFA43575-969B-428E-BB1E-6EB41AB3A1B7}"/>
+    <hyperlink ref="S31" r:id="rId110" xr:uid="{D836D491-1540-4012-943F-C66A75CC5EA5}"/>
+    <hyperlink ref="AT31" r:id="rId111" xr:uid="{4C4B097D-5FA3-4C1C-BDD4-DA25DFF082CB}"/>
+    <hyperlink ref="AY31" r:id="rId112" xr:uid="{A1D8CE51-AC79-45F4-82FF-702E70991786}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId105"/>
+  <legacyDrawing r:id="rId113"/>
   <tableParts count="1">
-    <tablePart r:id="rId106"/>
+    <tablePart r:id="rId114"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F320DF3-E9B5-4359-BF24-6094C26904DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE7EBDE-1A9F-4C61-97C4-FFB9ADC747E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -46,7 +45,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -60,7 +58,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -74,7 +71,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -88,7 +84,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -102,7 +97,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -116,7 +110,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>O respondente atualizou este valor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="GI32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
           <t>O respondente atualizou este valor.</t>
@@ -128,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="524">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1857,8 +1863,8 @@
     <t>2, 4, 6, 8, 16</t>
   </si>
   <si>
-    <t>Espelho manchado
-Porta do banheiro com um furo na parte de baixo</t>
+    <t xml:space="preserve">Espelho manchado
+Porta do banheiro com um furo na parte de baixo </t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1k2F_zU1oPMzTIq4YFGuFmGjOKHzy8LHA, https://drive.google.com/open?id=13qe4pc3slXMwVq-waNTHvN239cUDGKNe</t>
@@ -1870,9 +1876,9 @@
     <t>https://drive.google.com/open?id=1yKF5_T1JKN3l-XNkF4unEfFMJqgkRN7F</t>
   </si>
   <si>
-    <t>Grade do abastecimento de água para toilette está com falha nas divisórias
+    <t xml:space="preserve">Grade do abastecimento de água para toilette está com falha nas divisórias
 Braço do retrovisor pintura gasta 
-Luz do quarto degrau não acende</t>
+Luz do quarto degrau não acende </t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1-EIZxotkh4w2UBJUYk66wTqL12I0EKv5</t>
@@ -1881,7 +1887,7 @@
     <t>https://drive.google.com/open?id=1Q3XmF6vf3yiPd2f2-aJM8ApFWFpciH8y</t>
   </si>
   <si>
-    <t>USB no banco do segundo motorista não tem conexão</t>
+    <t xml:space="preserve">USB no banco do segundo  motorista não tem conexão </t>
   </si>
   <si>
     <t>6, 12, 14, 22, 27, 30, 36, 47, 48, 49, 50, 51, 54</t>
@@ -1899,10 +1905,50 @@
     <t>9, 10, 37</t>
   </si>
   <si>
-    <t>Insulfilme como bolhas</t>
+    <t xml:space="preserve">Insulfilme como bolhas </t>
   </si>
   <si>
     <t>Arco íris nas por falta de polimento.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aFQO-0JTMAILWhPfeLdc5xvlfe7hvvmE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hrFobyg1k76WFnKqarqY-xznwJgXYVxA</t>
+  </si>
+  <si>
+    <t>Arco-íris nos vidros (polimento)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bvK5mwaShhtuETzELBTzEWN_qBeqy07D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xbED-JcIPxCAwd1rzFDgN9aXAeKxLjwq</t>
+  </si>
+  <si>
+    <t>24, 26, 32, 46, 49, 50, 51, 54, 55</t>
+  </si>
+  <si>
+    <t>9, 17, 28, 40</t>
+  </si>
+  <si>
+    <t>35, 47, 55</t>
+  </si>
+  <si>
+    <t>1, 9, 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem suporte de cortina nas poltronas 7 e 47
+Porta para leito cama está quebrada no suporte na parte de baixo 
+Interfone está sem o suporte do Encaixe e desconectado do fio de conexão 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem a tampa do suporte 
+Abaixo do porta papel higiênico existente uma tela que está enferrujada. </t>
+  </si>
+  <si>
+    <t>Higienização total nos bancos</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1958,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1937,13 +1983,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1995,6 +2034,22 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
@@ -2018,29 +2073,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respostas ao formulário 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2059,7 +2098,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ32">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2459,11 +2498,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ31"/>
+  <dimension ref="A1:GJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7849,9 +7888,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>46046.673842592594</v>
+        <v>46046.673836944443</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>192</v>
@@ -7859,7 +7898,7 @@
       <c r="C30" s="3">
         <v>50146</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E30" s="4">
@@ -7877,67 +7916,55 @@
       <c r="S30" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="AE30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AN30" s="3"/>
       <c r="AS30" s="4">
         <v>46357</v>
       </c>
       <c r="AT30" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="AX30">
+      <c r="AX30" s="4">
         <v>46357</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="AY30" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="BM30" s="3"/>
       <c r="BN30" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="BW30" t="s">
+      <c r="BW30" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="BX30" s="3"/>
       <c r="BZ30" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="CC30" s="3"/>
-      <c r="CL30" s="3"/>
-      <c r="CS30">
+      <c r="CS30" s="3">
         <v>2</v>
       </c>
-      <c r="CU30" t="s">
+      <c r="CU30" s="3" t="s">
         <v>494</v>
       </c>
       <c r="CZ30" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="DC30" t="s">
+      <c r="DC30" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="DD30" s="3"/>
-      <c r="EB30" s="3"/>
-      <c r="EP30" t="s">
-        <v>197</v>
-      </c>
-      <c r="EU30" t="s">
+      <c r="EP30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU30" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="EV30" t="s">
+      <c r="EV30" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="FT30" s="3"/>
-      <c r="FX30" s="3"/>
-      <c r="GI30" s="3"/>
-      <c r="GJ30" s="6">
+      <c r="GJ30" s="3">
         <v>800905</v>
       </c>
     </row>
-    <row r="31" spans="1:192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>46048.421782407408</v>
+        <v>46048.421779525466</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>192</v>
@@ -7945,7 +7972,7 @@
       <c r="C31" s="3">
         <v>40296</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E31" s="4">
@@ -7957,10 +7984,10 @@
       <c r="G31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>405</v>
       </c>
       <c r="R31" s="7" t="s">
@@ -7969,7 +7996,6 @@
       <c r="S31" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="AE31" s="3"/>
       <c r="AH31" s="3" t="s">
         <v>197</v>
       </c>
@@ -7982,40 +8008,37 @@
       <c r="AT31" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="AX31">
+      <c r="AX31" s="4">
         <v>46048</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AY31" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="BD31" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK31" t="s">
+      <c r="BD31" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK31" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="BM31" s="3"/>
       <c r="BN31" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="BX31" s="3"/>
-      <c r="BY31">
+      <c r="BY31" s="3">
         <v>22</v>
       </c>
       <c r="BZ31" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="CC31" s="3"/>
       <c r="CL31" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="CO31">
+      <c r="CO31" s="3">
         <v>55</v>
       </c>
-      <c r="CW31" t="s">
+      <c r="CW31" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="CZ31" s="3" t="s">
+      <c r="CZ31" s="6" t="s">
         <v>509</v>
       </c>
       <c r="DD31" s="3">
@@ -8024,13 +8047,97 @@
       <c r="EB31" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="FT31" s="3"/>
-      <c r="FX31" s="3"/>
       <c r="GI31" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="GJ31" s="6">
+      <c r="GJ31" s="3">
         <v>604656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>46048.522841620375</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="3">
+        <v>40286</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="4">
+        <v>46048</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT32" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AY32" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="BN32" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="BQ32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW32" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="CL32" s="3">
+        <v>18</v>
+      </c>
+      <c r="CO32" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU32" s="3">
+        <v>5</v>
+      </c>
+      <c r="CZ32" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="EB32" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="EG32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU32" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="GI32" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="GJ32" s="3">
+        <v>542585</v>
       </c>
     </row>
   </sheetData>
@@ -8139,19 +8246,23 @@
     <hyperlink ref="R29" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="S29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="AT29" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="R30" r:id="rId105" xr:uid="{2F517397-0881-4EDF-B780-381E5AC9D14C}"/>
-    <hyperlink ref="S30" r:id="rId106" xr:uid="{4052E7B2-B777-46CD-B258-420E2AFAF583}"/>
-    <hyperlink ref="AT30" r:id="rId107" xr:uid="{C0B7F6CF-E531-4430-B0EF-FE17CBC050CA}"/>
-    <hyperlink ref="AY30" r:id="rId108" xr:uid="{97D05C49-3390-48BF-A97C-4F321AD06C3C}"/>
-    <hyperlink ref="R31" r:id="rId109" xr:uid="{DFA43575-969B-428E-BB1E-6EB41AB3A1B7}"/>
-    <hyperlink ref="S31" r:id="rId110" xr:uid="{D836D491-1540-4012-943F-C66A75CC5EA5}"/>
-    <hyperlink ref="AT31" r:id="rId111" xr:uid="{4C4B097D-5FA3-4C1C-BDD4-DA25DFF082CB}"/>
-    <hyperlink ref="AY31" r:id="rId112" xr:uid="{A1D8CE51-AC79-45F4-82FF-702E70991786}"/>
+    <hyperlink ref="R30" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="S30" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="AT30" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="AY30" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="R31" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="S31" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="AT31" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="AY31" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="R32" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="S32" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="AT32" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="AY32" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId113"/>
+  <legacyDrawing r:id="rId117"/>
   <tableParts count="1">
-    <tablePart r:id="rId114"/>
+    <tablePart r:id="rId118"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE7EBDE-1A9F-4C61-97C4-FFB9ADC747E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA68EA8-496C-433E-9756-68D18B74AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="545">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1950,6 +1950,72 @@
   <si>
     <t>Higienização total nos bancos</t>
   </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bgbK0jS2KYhGuCslw1dcH4T6vgY5qP3a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QjADM-nTh1XbOGxYsXIB1ZtE8gMGgEc6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1shGFxVPqD9Tp7JtIK0ch1zuw4uoNUkc4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1v2tfradBFzycNjAjyYdllC_oMECwAKLB</t>
+  </si>
+  <si>
+    <t>27, 34, 44, 45</t>
+  </si>
+  <si>
+    <t>1, 27, 43</t>
+  </si>
+  <si>
+    <t>19, 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está sem tampa </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CDtLK8MwVSdP95_Sy-m73o96lbRJMxoX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1U_hfYTzHVc_JJ2l0ODZ83XW2oAHhFEx3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade do tampão traseiro desgaste na pintura </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1EdQKDUgl80msgejjurLPUOK48hYuOWOQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1s5VQvN8W7MPUOlONj964yvon47JyLDtk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza no teto e no painel do cabendo motorista 
+Banco do segundo motorista com rasura no couro no apoio de braço </t>
+  </si>
+  <si>
+    <t>2, 4, 5, 16, 40, 47, 48, 49, 50, 54, 55</t>
+  </si>
+  <si>
+    <t>2, 3, 21</t>
+  </si>
+  <si>
+    <t>15, 19, 20, 27, 40</t>
+  </si>
+  <si>
+    <t>2, 6, 10, 30, 34, 38, 44</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 7, 31, 33</t>
+  </si>
+  <si>
+    <t>Limpeza no suporte cama 
+Friso do ar condicionado do primeiro piso sujo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem a tampa do papel higiênico 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1969,7 +2035,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2098,7 +2163,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ34">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2498,7 +2563,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ32"/>
+  <dimension ref="A1:GJ34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8138,6 +8203,154 @@
       </c>
       <c r="GJ32" s="3">
         <v>542585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>46048.686784560181</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="3">
+        <v>41176</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="4">
+        <v>46048</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AT33" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AY33" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="BN33" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BW33" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="CZ33" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="DY33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EH33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU33" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="GJ33" s="3">
+        <v>434386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>46049.419430335649</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="3">
+        <v>40366</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="4">
+        <v>46049</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT34" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>46266</v>
+      </c>
+      <c r="AY34" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="BK34" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="BN34" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX34" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="CL34" s="3">
+        <v>29</v>
+      </c>
+      <c r="CP34" s="3">
+        <v>23</v>
+      </c>
+      <c r="CU34" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="DF34" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="DI34" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="EB34" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="EG34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ER34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU34" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="GJ34" s="3">
+        <v>503505</v>
       </c>
     </row>
   </sheetData>
@@ -8258,11 +8471,19 @@
     <hyperlink ref="S32" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AT32" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="AY32" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="R33" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="S33" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="AT33" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="AY33" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="R34" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="S34" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="AT34" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="AY34" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId117"/>
+  <legacyDrawing r:id="rId125"/>
   <tableParts count="1">
-    <tablePart r:id="rId118"/>
+    <tablePart r:id="rId126"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA68EA8-496C-433E-9756-68D18B74AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B7B709-8D27-49F9-B4BB-20457C54F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="560">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2015,6 +2015,56 @@
   <si>
     <t xml:space="preserve">Sem a tampa do papel higiênico 
 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GtoT3HUPQwvBHnvY9KikX3YdUUgX1efE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1d8lMdJlxz97WsWa2y3I4BOg9X2M6yDlO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16HQeNAslYPLIYfOyycIrE6F90IDNVKnr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RDCeBGTNUw_q_APz3d4vQV49eEfsKQz_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza na cabine do motorista </t>
+  </si>
+  <si>
+    <t>1, 5, 45</t>
+  </si>
+  <si>
+    <t>9, 18, 21, 40</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 20, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46</t>
+  </si>
+  <si>
+    <t>31, 32</t>
+  </si>
+  <si>
+    <t>25, 33, 37</t>
+  </si>
+  <si>
+    <t>44, 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizacao piso por inteiro e na laterais
+Higienizacao no porto copos de todos o banco 
+Carenagem limpar todas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem a tampa
+Pintar a tampa do vaso 
+Porta suja por fora
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintar por fora e por dentro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As 3 telas dos monitores e os suportes estão com Sujeira. </t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2213,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ35">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2563,7 +2613,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ34"/>
+  <dimension ref="A1:GJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8351,6 +8401,95 @@
       </c>
       <c r="GJ34" s="3">
         <v>503505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>46049.508536238427</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="3">
+        <v>20596</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="4">
+        <v>46049</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO35" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>46174</v>
+      </c>
+      <c r="AT35" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK35" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="BX35" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="BY35" s="3">
+        <v>40</v>
+      </c>
+      <c r="CC35" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="CH35" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="CW35" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="DD35" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="DF35" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EB35" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="EG35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ER35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU35" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="FX35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG35" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="GI35" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="GJ35" s="3">
+        <v>1710984</v>
       </c>
     </row>
   </sheetData>
@@ -8479,11 +8618,15 @@
     <hyperlink ref="S34" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="AT34" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
     <hyperlink ref="AY34" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="R35" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="S35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="AO35" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="AT35" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId125"/>
+  <legacyDrawing r:id="rId129"/>
   <tableParts count="1">
-    <tablePart r:id="rId126"/>
+    <tablePart r:id="rId130"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B7B709-8D27-49F9-B4BB-20457C54F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22944279-26FA-43F2-BDEE-E9194B863855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="582">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2065,6 +2065,89 @@
   </si>
   <si>
     <t xml:space="preserve">As 3 telas dos monitores e os suportes estão com Sujeira. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rGEak5TaX0svWLuhS-yDRaLkjd2jXLu_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hyPqJSLRiuljlX4sYY6iC4LuaAgQXfIK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11sXP1LbzTTngEvg5fCuoLUb5p93naCM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não existem câmaras
+Porta de acesso ao salão está sem o suporte do pino
+Quebra vento do motorista está sem o puxador </t>
+  </si>
+  <si>
+    <t>3, 4, 25</t>
+  </si>
+  <si>
+    <t>9, 21, 29</t>
+  </si>
+  <si>
+    <t>13, 19, 25, 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoie pernas das poltronas 45 e 46 estão distantes do suporte dos acentos 
+Higienizacao no piso em geral, nos acentos e nos porta copos 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porta papel esta faltando  a tampa do suporte 
+Puxador da porta está sem a proteção 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintura externa e interna </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1sSJyeovjkYXD578ocfxG8kitLSgVvX4W</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1iawBElPjLAOf0pps668On3QQ66pCCOn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braço do retrovisor trincado 
+Pintura trincado na coluna L/D acima da lanterna 
+Ralado na pintura na altura das rodas
+Limpeza na porta de acessibilidade </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18suD-LdYUWrvU4MPV2yR__-feSRVrrzK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizar a cabine do motorista 
+Suporte do painel solto próximo aos degraus e acima do painel do motorista. </t>
+  </si>
+  <si>
+    <t>1, 3, 6, 10, 26, 28, 34, 35</t>
+  </si>
+  <si>
+    <t>21, 45</t>
+  </si>
+  <si>
+    <t>5, 45</t>
+  </si>
+  <si>
+    <t>Apoio de pernas com as fitas sem elasticidade das poltronas 1,2,3 e 4
+Cortinas sem suporte nas poltronas 37 e 39
+Suporte da Cortina a tampa poltrona 3
+Tela do ar-condicionado no teto está com avaria 
+Teto sujo na altura das poltronas 17 e 19
+Não adesivos de QRC nas laterais 
+Chiclete no piso ao lado da poltrona 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza interna e externa 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza interna e externa </t>
+  </si>
+  <si>
+    <t>Tomada branca do USB que fica abaixo do apoie braço sem a tampa de proteção nas poltronas 14,40,42 e 46</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2296,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ37">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2613,7 +2696,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ35"/>
+  <dimension ref="A1:GJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8490,6 +8573,181 @@
       </c>
       <c r="GJ35" s="3">
         <v>1710984</v>
+      </c>
+    </row>
+    <row r="36" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>46049.679987025462</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="3">
+        <v>20586</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="4">
+        <v>46049</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AT36" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="BF36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK36" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="BN36" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="BX36" s="3">
+        <v>17</v>
+      </c>
+      <c r="BY36" s="3">
+        <v>45</v>
+      </c>
+      <c r="CC36" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="CM36" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="DD36" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="DI36" s="3">
+        <v>43</v>
+      </c>
+      <c r="DK36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB36" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="EG36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EM36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EN36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ES36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU36" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="FX36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG36" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="GJ36" s="3">
+        <v>1730684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>46050.394276215273</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="3">
+        <v>20556</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="4">
+        <v>46050</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT37" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="BK37" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="BN37" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="BX37" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CH37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="DD37" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="DH37" s="3">
+        <v>3</v>
+      </c>
+      <c r="EB37" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="EU37" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="GG37" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="GI37" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="GJ37" s="3">
+        <v>867135</v>
       </c>
     </row>
   </sheetData>
@@ -8622,11 +8880,17 @@
     <hyperlink ref="S35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
     <hyperlink ref="AO35" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
     <hyperlink ref="AT35" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="R36" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="S36" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="AT36" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="R37" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="S37" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="AT37" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId129"/>
+  <legacyDrawing r:id="rId135"/>
   <tableParts count="1">
-    <tablePart r:id="rId130"/>
+    <tablePart r:id="rId136"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22944279-26FA-43F2-BDEE-E9194B863855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B6EA42-DD06-490C-B15E-933B24EE8FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1476" yWindow="1476" windowWidth="18000" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="598">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2149,6 +2149,71 @@
   <si>
     <t>Tomada branca do USB que fica abaixo do apoie braço sem a tampa de proteção nas poltronas 14,40,42 e 46</t>
   </si>
+  <si>
+    <t>Frontal, Lateral esquerda</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-fWMuUyjcRJ8Am0pIgkbUpTzqQLEL8D9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1o_llNn3Qy8avtK7jL0GAqPzDOhUlZs-l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parachoque rachadura na pintura 
+Suporte que esta a lanterna entre os eixos está solto lado D
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ggugoYVKEStoPfAntzwwCCLALjHt1HoX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinto de segurança do motorista limpeza 
+Acessório do painel do motorista solto
+Insulfilme do quebra sol do motorista está sem </t>
+  </si>
+  <si>
+    <t>31, 33</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 35, 45, 46</t>
+  </si>
+  <si>
+    <t>15, 16, 23, 24</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 16, 23, 24, 35, 36</t>
+  </si>
+  <si>
+    <t>14, 19</t>
+  </si>
+  <si>
+    <t>5, 7, 23, 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danos no apoio de perna FERRUGEM 
+Nas poltronas 13 e 14 na parte de trás o suporte está quebrado
+Corda das cortinas Lado D/E na parte inferior está desfiada 
+Carenagem do porta embrulho lado direito da iluminação esta quebrada 
+Suporte em cima do porta embrulho trincado e solto
+HIGIENIZAR os Painéis de luz de leitur e do ar, as poltronas, os porta copos, e teto acima do porta embrulho.
+Está sem capinha no suporte das cortinas das poltronas 3,17,27 e 39
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15FKZm5VQ7b12q3ybGeY5W_ne3XukT9TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidro desbotado no roda pe
+Suporte do papel higiênico sem a tampa 
+Borracha da porta do toilette só a metade 
+Luz só acende um lâmpada 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borracha ressecada 
+Pintar por dentro e por fora
+</t>
+  </si>
 </sst>
 </file>
 
@@ -2168,6 +2233,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2296,7 +2362,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ38">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2696,7 +2762,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ37"/>
+  <dimension ref="A1:GJ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8748,6 +8814,128 @@
       </c>
       <c r="GJ37" s="3">
         <v>867135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>46050.502554641207</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20836</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="4">
+        <v>46050</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN38" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT38" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="BG38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK38" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="BY38" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="CC38" s="3">
+        <v>46</v>
+      </c>
+      <c r="CK38" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="CQ38" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="CR38" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="CU38" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="DB38" s="3">
+        <v>20</v>
+      </c>
+      <c r="DD38" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="DK38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB38" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="EC38" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="EG38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EN38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EP38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ER38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU38" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="EZ38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FH38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FL38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FT38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FX38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG38" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ38" s="3">
+        <v>1974717</v>
       </c>
     </row>
   </sheetData>
@@ -8886,11 +9074,15 @@
     <hyperlink ref="R37" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="S37" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="AT37" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="R38" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="S38" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="AT38" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="EC38" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId135"/>
+  <legacyDrawing r:id="rId139"/>
   <tableParts count="1">
-    <tablePart r:id="rId136"/>
+    <tablePart r:id="rId140"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B6EA42-DD06-490C-B15E-933B24EE8FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6415AD37-C4E9-4574-AD18-4DAAF5FDDC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="1476" windowWidth="18000" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="614">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2213,6 +2213,63 @@
     <t xml:space="preserve">Borracha ressecada 
 Pintar por dentro e por fora
 </t>
+  </si>
+  <si>
+    <t>Lateral esquerda, Traseira</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HkXxBH2R-z1-bnDum5yx6gqGzOdDuLmX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GDuniH64-rpcZRMbeYDjRnIlRLwYHL_-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parachoque traseiro com picote na pintura 
+Arco íris no vidros </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1c5qDJ4aBRSsqvjZZ6M81lfd4Uf6wOVaa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Lh2STOMzxsxhIenwWAb-6EkuktbEYiWz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Wjs0VtOXcz-jsO7J8UN8KTT-KPoKlicO</t>
+  </si>
+  <si>
+    <t>5, 12, 28, 34, 53, 54</t>
+  </si>
+  <si>
+    <t>51, 55</t>
+  </si>
+  <si>
+    <t>47, 49</t>
+  </si>
+  <si>
+    <t>12, 25, 38, 39, 45, 50, 55</t>
+  </si>
+  <si>
+    <t>21, 31, 43, 45</t>
+  </si>
+  <si>
+    <t>53, 54, 55</t>
+  </si>
+  <si>
+    <t>47, 48, 55</t>
+  </si>
+  <si>
+    <t>Vereta da cortina solta no vidro panorâmico
+Porta de acessibilidade com sujeira interna 
+Suporte cama com sujeira nas poltronas 47,48,49 e 50
+Lateral da poltronas 53 lona rasgada 
+Suporte das cortinas solto poltronas 7 e 45 e sem Suporte na 39
+Friso do ar no primeiro piso para limpeza 
+Poltronas do segundo piso para higienizacao 
+Forro lateral da Poltrona 55 rasgado
+Forro do assoalho descolado próximo às Poltronas 54 e 55</t>
+  </si>
+  <si>
+    <t>Só limpeza por dentro e por fora</t>
   </si>
 </sst>
 </file>
@@ -2362,7 +2419,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ39">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2762,11 +2819,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ38"/>
+  <dimension ref="A1:GJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8936,6 +8993,107 @@
       </c>
       <c r="GJ38" s="3">
         <v>1974717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>46050.679880034717</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="3">
+        <v>40226</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="4">
+        <v>46050</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT39" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX39" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AY39" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="BN39" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="BW39" s="3">
+        <v>11</v>
+      </c>
+      <c r="CJ39" s="3">
+        <v>54</v>
+      </c>
+      <c r="CK39" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="CO39" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="CP39" s="3">
+        <v>3</v>
+      </c>
+      <c r="CS39" s="3">
+        <v>54</v>
+      </c>
+      <c r="CU39" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="CZ39" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="DD39" s="3">
+        <v>51</v>
+      </c>
+      <c r="DE39" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="DI39" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="EB39" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="EU39" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="GG39" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="GJ39" s="3">
+        <v>619223</v>
       </c>
     </row>
   </sheetData>
@@ -9078,11 +9236,16 @@
     <hyperlink ref="S38" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
     <hyperlink ref="AT38" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
     <hyperlink ref="EC38" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="R39" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="S39" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="AO39" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="AT39" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="AY39" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId139"/>
+  <legacyDrawing r:id="rId144"/>
   <tableParts count="1">
-    <tablePart r:id="rId140"/>
+    <tablePart r:id="rId145"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6415AD37-C4E9-4574-AD18-4DAAF5FDDC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8299C4-92AD-4F54-82DF-44A0D8DFC35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="630">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2270,6 +2270,65 @@
   </si>
   <si>
     <t>Só limpeza por dentro e por fora</t>
+  </si>
+  <si>
+    <t>Frontal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xx78HHEFOcjAuG0gEibZTTlEL4XtG84a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1krUXamZNFJKcsDG2hqgq4F9dw5UBQ6jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parachoque com avaria 
+Acima Porta da entrada do lado direito abaixa do braço do retrovisor vidro quebrado
+Vidro do motorista trincado </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1S8eSCjkK3t9DLiddYtfxhhUnkCb9stZ4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12ZGe-Ws4li591JV4LXH37jWrdMHXGti1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lona do assoalho do motorista esta se descolando 
+Higienizar cabine do motorista </t>
+  </si>
+  <si>
+    <t>12, 14, 49, 51</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 20, 21, 23, 37, 40</t>
+  </si>
+  <si>
+    <t>27, 32</t>
+  </si>
+  <si>
+    <t>7, 8, 9, 16, 19, 29, 31, 37, 39, 45</t>
+  </si>
+  <si>
+    <t>9, 13, 17, 25, 27, 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeiro piso higiênizar total 
+Feltro dos apoio de pernas das poltronas 48,49,50,51 e 55 estão sem aderência 
+Frizo do ar do primeiro piso higiênizar 
+Luz de Led atrás das poltronas 51 solta e da poltronas 53 e 54 queimada
+Base do apoio de perna da poltrona 47 esta soltando a lona de proteção 
+Porta interna de acessibilidade suja e lateral da poltrona do elevador com sujeira 
+Adesivo interno de acessibilidade esta desbotando 
+Teto do segundo piso higienizar e o porta embrulho na parte de baixo 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VPSU3_J9XM8EahgbZ_aL17ZCHe3T6CiV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente limpeza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte no segundo piso na subida da escado esta com desgaste </t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2478,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ40">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2819,11 +2878,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ39"/>
+  <dimension ref="A1:GJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9094,6 +9153,101 @@
       </c>
       <c r="GJ39" s="3">
         <v>619223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>46051.425245833336</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="3">
+        <v>40346</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="4">
+        <v>46051</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="AS40" s="4">
+        <v>46266</v>
+      </c>
+      <c r="AT40" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="AX40" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AY40" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="AZ40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK40" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="BN40" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="BZ40" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="CF40" s="3">
+        <v>30</v>
+      </c>
+      <c r="CJ40" s="3">
+        <v>49</v>
+      </c>
+      <c r="CU40" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="CZ40" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="DJ40" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="EB40" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="EC40" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="EU40" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="GG40" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="GI40" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="GJ40" s="3">
+        <v>623872</v>
       </c>
     </row>
   </sheetData>
@@ -9241,11 +9395,16 @@
     <hyperlink ref="AO39" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="AT39" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="AY39" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="R40" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="S40" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="AT40" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="AY40" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="EC40" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId144"/>
+  <legacyDrawing r:id="rId149"/>
   <tableParts count="1">
-    <tablePart r:id="rId145"/>
+    <tablePart r:id="rId150"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8299C4-92AD-4F54-82DF-44A0D8DFC35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C0405A-01EA-45D6-AF6D-23798CB1868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="642">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2329,6 +2329,54 @@
   </si>
   <si>
     <t xml:space="preserve">Suporte no segundo piso na subida da escado esta com desgaste </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-vYlYaY6I5f8IalVvfgAfBwc5RbyUMUW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RLJnNt7PuHDftz_lgHemqUQUzqhmWup4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parachoque trazendo rompimento na pintura 
+Falta tampa do suporte do lado do motorista 
+Alcia de proteção do câmbio co. Ferrugem </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YUt266lCn4Ka8ICmddmGbq6Ul0Xpvvxg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-Pb8t5tOoUNx34C6BYR5Q1FGeLoHJQ96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza </t>
+  </si>
+  <si>
+    <t>10, 19, 21, 33, 37</t>
+  </si>
+  <si>
+    <t>6, 29, 33</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte da cortina sem a tampa poltrona 5 e na poltrona 39 sem o suporte 
+Corda da cortina parte inferior do lado direito esta se desfiando 
+Carenagem das poltrona 16 e 20 na parte de trás esta quebrada 
+Poltrona 25 no encosto na parte de trás esta solta 
+Lona da laterais esta descolando entre as poltronas 3,5,913,15,17,19,27,33,37 e 41
+Higienizar o piso do corredor e embaixo da poltronas
+Higienizar as poltronas em geral 
+Limpeza no teto dentro dos porta embrulho 
+Limpar os suporte da numeração das poltronas 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa do porta papel higiênico 
+Limpeza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza interna </t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2526,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ41">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2878,7 +2926,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ40"/>
+  <dimension ref="A1:GJ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9248,6 +9296,89 @@
       </c>
       <c r="GJ40" s="3">
         <v>623872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>46051.532051377319</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20976</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="4">
+        <v>46051</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN41" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="AO41" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AT41" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BK41" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="BN41" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="BX41" s="3">
+        <v>46</v>
+      </c>
+      <c r="BY41" s="3">
+        <v>36</v>
+      </c>
+      <c r="CC41" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="CF41" s="3">
+        <v>22</v>
+      </c>
+      <c r="CL41" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CU41" s="3">
+        <v>18</v>
+      </c>
+      <c r="DK41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB41" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="EU41" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="GG41" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="GJ41" s="3">
+        <v>1774083</v>
       </c>
     </row>
   </sheetData>
@@ -9400,11 +9531,15 @@
     <hyperlink ref="AT40" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
     <hyperlink ref="AY40" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
     <hyperlink ref="EC40" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="R41" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="S41" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="AO41" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="AT41" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId149"/>
+  <legacyDrawing r:id="rId153"/>
   <tableParts count="1">
-    <tablePart r:id="rId150"/>
+    <tablePart r:id="rId154"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C0405A-01EA-45D6-AF6D-23798CB1868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F6DF5F-1DCF-4D72-A6A0-0C1B500D4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="648">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2377,6 +2377,33 @@
   </si>
   <si>
     <t xml:space="preserve">Limpeza interna </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1se7jMsP446eXxGhoZdqHikC71Fry-RFQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qm5MYZBUW7uM40oj-cPyIfZw_vf0UbZg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mWpBZ8Ra_pdNKrppKjKmsmwVYbNJSbG-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carenagem do porta embrulho trincado na numeração das poltronas 29 e 31
+Na poltrona 39 suporte da cortinas sem tampa 
+Teto quebrado acima do porta embrulho nas poltrona 25,26 e na 27 e 28
+Trinco na carenagem do porta copos da poltrona 14
+Pintura gasta nos pés do encosto de pernas das poltrona 1,2,3 e 4
+Poltrona 40 no encosto na parte de trás está solto o suporte
+Higienizar as poltronas e o piso em geral
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza 
+O suporte do papel higiênico esta sem a tampa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintura externa
+E limpeza </t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2553,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ42">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2926,7 +2953,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ41"/>
+  <dimension ref="A1:GJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9379,6 +9406,65 @@
       </c>
       <c r="GJ41" s="3">
         <v>1774083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>46051.670991168983</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20776</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="4">
+        <v>46051</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT42" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="BN42" s="3">
+        <v>36</v>
+      </c>
+      <c r="BY42" s="3">
+        <v>34</v>
+      </c>
+      <c r="CL42" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CS42" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="EB42" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="EU42" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="GG42" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="GJ42" s="3">
+        <v>1895377</v>
       </c>
     </row>
   </sheetData>
@@ -9535,11 +9621,14 @@
     <hyperlink ref="S41" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
     <hyperlink ref="AO41" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
     <hyperlink ref="AT41" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="R42" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="S42" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="AT42" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId153"/>
+  <legacyDrawing r:id="rId156"/>
   <tableParts count="1">
-    <tablePart r:id="rId154"/>
+    <tablePart r:id="rId157"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F6DF5F-1DCF-4D72-A6A0-0C1B500D4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99F535F-A160-443A-949C-2995FBD3E59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="660">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2404,6 +2404,51 @@
   <si>
     <t xml:space="preserve">Pintura externa
 E limpeza </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19hPCfaHogFRBpqDsWGsiFPh35PEPyWeh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1L7jA1mEa_LnvReKnG-NHw-1SwBmBXu4A</t>
+  </si>
+  <si>
+    <t>Coluna L/D traseira com rabisco de ralado parte de cima 
+Braço do retrovisor ralado L/E
+Braço de retrovisor L/D trincado 
+Vidro trincado L/D
+Arco-íris nos vidro</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zAS9m116sASQ_vfhdg01aVyudxaDgpsG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lomeRYGIqRNkzVgrjBnTEGXP5uVGwFBa</t>
+  </si>
+  <si>
+    <t>Suporte no pai do motorista lado do caro trincado 
+Limpeza no teto</t>
+  </si>
+  <si>
+    <t>45, 47, 48, 49, 50, 51, 53, 54, 55</t>
+  </si>
+  <si>
+    <t>24, 33</t>
+  </si>
+  <si>
+    <t>3, 53, 54</t>
+  </si>
+  <si>
+    <t>13, 49, 51</t>
+  </si>
+  <si>
+    <t>29, 30, 33, 39, 41, 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpeza no suporte cama nas carenagens
+Teto e friso do ar condicionado no primeiro piso limpar
+Fita da luz de Led do vidro panorâmica solto 
+Balaustre da escada para o segundo piso esta solto 
+</t>
   </si>
 </sst>
 </file>
@@ -2553,7 +2598,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ43">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2953,7 +2998,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ42"/>
+  <dimension ref="A1:GJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9465,6 +9510,110 @@
       </c>
       <c r="GJ42" s="3">
         <v>1895377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>46052.478547754625</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="3">
+        <v>40966</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="4">
+        <v>46052</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="AN43" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AS43" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AT43" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="AX43" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AY43" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="AZ43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK43" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="BN43" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="BP43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW43" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="BZ43" s="3">
+        <v>51</v>
+      </c>
+      <c r="CS43" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="CU43" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="CZ43" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="DI43" s="3">
+        <v>29</v>
+      </c>
+      <c r="EB43" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="EU43" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="GG43" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="GJ43" s="3">
+        <v>499516</v>
       </c>
     </row>
   </sheetData>
@@ -9624,11 +9773,15 @@
     <hyperlink ref="R42" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="S42" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
     <hyperlink ref="AT42" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="R43" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="S43" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="AT43" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="AY43" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId156"/>
+  <legacyDrawing r:id="rId160"/>
   <tableParts count="1">
-    <tablePart r:id="rId157"/>
+    <tablePart r:id="rId161"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99F535F-A160-443A-949C-2995FBD3E59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFDF97A-DB5C-49CB-9923-CB5D16308516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="674">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2449,6 +2449,59 @@
 Fita da luz de Led do vidro panorâmica solto 
 Balaustre da escada para o segundo piso esta solto 
 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Dh88YEB9KOA_MAffOMpbV4mktTVYtU4r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uaHK-1_ol9J9dIZkSnyKaltljXMyxVCP</t>
+  </si>
+  <si>
+    <t>NA traseira próximo símbolo itapemirim esta com um furo na  lataria
+Parachoque trincado
+Braço do retrovisor L D Trincado</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BHidxvsRz3URZs_F_ECFuP5eaxE2lnFN</t>
+  </si>
+  <si>
+    <t>Na subida dos degraus, tem um porta correias, ela está com dobradiça quebrada</t>
+  </si>
+  <si>
+    <t>29, 33, 37</t>
+  </si>
+  <si>
+    <t>10, 12, 20, 36</t>
+  </si>
+  <si>
+    <t>4, 34</t>
+  </si>
+  <si>
+    <t>2, 16</t>
+  </si>
+  <si>
+    <t>9, 15, 17, 33, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teto trincado acima do porta volume na altura das poltronas 05,36 e 42
+Suporte acima da poltrona 21 do porta volume esta solto 
+No salão não tem informativo do QRC
+Suporte das cortina sem a tampa de proteção, 03,10,13 e 46
+As carenagens das luzes de leitura e do ar no porta volumes para higienizacao 
+Os pés das poltronas já estão com a titãs gastas 
+No suporte do vidro de informação nas poltronas o1 da e 02 fazer restado com tinta
+Higienizar as poltronas e o salão 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UVlcibv_2e27ijavGDVvbZAzbq0c8lmZ, https://drive.google.com/open?id=1CY8cwzndbJ2dJfTw_T8h5AQ6bmDZoonU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mola da tampa do vaso esta com o retorno lento 
+Limpeza </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16YPHrgj33RvNBfWrrz-Yd5gsbN51nOdf</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2651,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ44">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -2998,7 +3051,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ43"/>
+  <dimension ref="A1:GJ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9614,6 +9667,98 @@
       </c>
       <c r="GJ43" s="3">
         <v>499516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>46054.405703206023</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20686</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="4">
+        <v>46054</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AS44" s="4">
+        <v>46113</v>
+      </c>
+      <c r="AT44" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="BK44" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="BN44" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="BZ44" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="CC44" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="CJ44" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="CL44" s="3">
+        <v>16</v>
+      </c>
+      <c r="DD44" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="DK44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB44" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="EC44" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="ER44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU44" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="EV44" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="GG44" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="GJ44" s="3">
+        <v>1154406</v>
       </c>
     </row>
   </sheetData>
@@ -9777,11 +9922,15 @@
     <hyperlink ref="S43" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
     <hyperlink ref="AT43" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
     <hyperlink ref="AY43" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="R44" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="S44" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="AT44" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="EV44" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId160"/>
+  <legacyDrawing r:id="rId164"/>
   <tableParts count="1">
-    <tablePart r:id="rId161"/>
+    <tablePart r:id="rId165"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DFDF97A-DB5C-49CB-9923-CB5D16308516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCDF518-8B5A-4197-B7A0-DEE762C0741C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="687">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2502,6 +2502,54 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=16YPHrgj33RvNBfWrrz-Yd5gsbN51nOdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zXIE8IHOdjcvEDTeNRmB2bbw0hm9P1PW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1I3DbJ7jNyzzVTNxl5cONLeinHsRHYWdP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braço de retrovisor lado  D trincado </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ta8nUQssOxCCdJsK0e67uH4MG_Lk1wGF</t>
+  </si>
+  <si>
+    <t>19, 25</t>
+  </si>
+  <si>
+    <t>26, 32</t>
+  </si>
+  <si>
+    <t>4, 10</t>
+  </si>
+  <si>
+    <t>7, 8, 29, 30</t>
+  </si>
+  <si>
+    <t>7, 25, 27, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carenagem na subida dos degraus com furo
+Na carenagem da poltrona 15 falta uma tampa
+Suporte da luz de leitura, ar e tomada USB nas poltronas 31 e 37 trincada
+Teto acima do porta embrulho das poltronas 15,32,33 e 43 trincado 
+Suporte do ar acima das poltronas 27 e 21 esta solto 
+Adesivo  QRC está sem
+Higienizar o piso por inteiro e as poltronas 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luminária falta uma lâmpada 
+Suporte abaixo do espelho com ferrugem 
+E faze limpeza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintura interna e extena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No primeiro Bagageiro do lado D,  esta faltando o trava bagagem </t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ45">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3051,7 +3099,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ44"/>
+  <dimension ref="A1:GJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9759,6 +9807,95 @@
       </c>
       <c r="GJ44" s="3">
         <v>1154406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>46055.418405381948</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="3">
+        <v>20866</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="4">
+        <v>46055</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="AN45" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="AS45" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT45" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="BD45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN45" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="BX45" s="3">
+        <v>10</v>
+      </c>
+      <c r="BZ45" s="3">
+        <v>37</v>
+      </c>
+      <c r="CC45" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="CL45" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CU45" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="CW45" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="DD45" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="DY45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB45" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="EG45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU45" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="GG45" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="GI45" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="GJ45" s="3">
+        <v>1911498</v>
       </c>
     </row>
   </sheetData>
@@ -9926,11 +10063,14 @@
     <hyperlink ref="S44" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
     <hyperlink ref="AT44" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
     <hyperlink ref="EV44" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="R45" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="S45" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="AT45" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId164"/>
+  <legacyDrawing r:id="rId167"/>
   <tableParts count="1">
-    <tablePart r:id="rId165"/>
+    <tablePart r:id="rId168"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCDF518-8B5A-4197-B7A0-DEE762C0741C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D80FDAA-3003-401B-B356-56919DF33C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="711">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2550,6 +2550,103 @@
   </si>
   <si>
     <t xml:space="preserve">No primeiro Bagageiro do lado D,  esta faltando o trava bagagem </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nsma2biXKc-CuEP0vLO3kenm88sLPTgu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_GYLfe_jTWGxoCBg8kRl3rXilpMKHKnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parachoque com a pintura trincada
+Tampa do motor com um furo nas divisórias
+Retrovisores dois lado com sujeira nos braços lado interno 
+Vidro dianteiro do lado E trincado
+Entre os dois do lado E o suporte da lanterna esta quebrada na parte interna 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gBJN3ElxsU6ewFR5cUOA-jo-7UEwN98u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinto de segurança esta se desfiando
+Fazer higienizacao 
+</t>
+  </si>
+  <si>
+    <t>6, 8, 13, 14, 37, 38</t>
+  </si>
+  <si>
+    <t>16, 33, 35</t>
+  </si>
+  <si>
+    <t>36, 44</t>
+  </si>
+  <si>
+    <t>7, 13, 17, 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teto trincado no porta embrulho na altura das poltronas 07 e 13
+Suporte do ar acima do porta embrulho acima da poltrona 19
+Forro do assoalho no piso furado na altura da poltrona 40
+Forro da lona lateral com desgaste na altura das poltronas 35 e 43
+Parte frontal das poltronas 1,2,3 e 4 pintura gasta
+Higienizar,  as poltronas, o piso, teto e o suporte de luz de leitura e ar
+</t>
+  </si>
+  <si>
+    <t>Higieniza por dentro e por fora</t>
+  </si>
+  <si>
+    <t>E pintar por dent5e por fora</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YeR2C9HTLf9PXFwrBpJUY7oNeY2P9BaL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JvwPGOD7qiMRHB-dDFrgwxCrdeBphYTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coluna na parte de cima ralada
+Trinco da porta do motorista quebrado 
+Suporte da lanterna do lado direito esta sem Acessório de acabamento 
+Vidros com arco íris </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1TJMUrICpNGbDdTxBVHPxkCI-MaP5b6Ok</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zshWwX9VSYWNZ05kATBBmvanmKUQFZ74</t>
+  </si>
+  <si>
+    <t>4, 14, 24, 28, 35, 44</t>
+  </si>
+  <si>
+    <t>1, 10, 13, 15, 27, 41</t>
+  </si>
+  <si>
+    <t>50, 51, 53</t>
+  </si>
+  <si>
+    <t>7, 12</t>
+  </si>
+  <si>
+    <t>9, 19, 37, 39, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A base  que segura o apoio de perna da poltrona 55 esta solto
+A base das poltronas camas todas encardidas
+Teto sujo no leito cama
+Mancha nas  laterais no leito cama
+Carenagem do acento da poltrona 9 na parte de trás esta solta
+Encosto do banco com chiclete 23 e 34
+Fita da luz de Led do vidro panorâmica esta solto
+Adesivo grudado no vidro da poltrona 33
+Adesivo do vidro de emergência com informativo apagado das poltrona 23 e 29
+</t>
+  </si>
+  <si>
+    <t>Suporte solto e sm tampa</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2796,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ47">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3099,7 +3196,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ45"/>
+  <dimension ref="A1:GJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9896,6 +9993,205 @@
       </c>
       <c r="GJ45" s="3">
         <v>1911498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>46055.518329525468</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20636</v>
+      </c>
+      <c r="E46" s="4">
+        <v>46055</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="AN46" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS46" s="4">
+        <v>46113</v>
+      </c>
+      <c r="AT46" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="BH46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK46" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="BX46" s="3">
+        <v>21</v>
+      </c>
+      <c r="BZ46" s="3">
+        <v>45</v>
+      </c>
+      <c r="CC46" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="CG46" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="CL46" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="DB46" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="DD46" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="EB46" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="EG46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ER46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU46" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="EZ46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG46" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="GJ46" s="3">
+        <v>1879242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46055.681473402779</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="3">
+        <v>40256</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="4">
+        <v>46055</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="AS47" s="4">
+        <v>46174</v>
+      </c>
+      <c r="AT47" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="AX47" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AY47" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="BK47" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="BN47" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="BP47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV47" s="3">
+        <v>9</v>
+      </c>
+      <c r="BW47" s="3">
+        <v>42</v>
+      </c>
+      <c r="BZ47" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="CH47" s="3">
+        <v>4</v>
+      </c>
+      <c r="CJ47" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="CK47" s="3">
+        <v>50</v>
+      </c>
+      <c r="CO47" s="3">
+        <v>51</v>
+      </c>
+      <c r="CS47" s="3">
+        <v>3</v>
+      </c>
+      <c r="CU47" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="CZ47" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="DI47" s="3">
+        <v>39</v>
+      </c>
+      <c r="EB47" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="EG47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU47" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="GG47" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="GJ47" s="3">
+        <v>627456</v>
       </c>
     </row>
   </sheetData>
@@ -10066,11 +10362,18 @@
     <hyperlink ref="R45" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
     <hyperlink ref="S45" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
     <hyperlink ref="AT45" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="R46" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="S46" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="AT46" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="R47" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="S47" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="AT47" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="AY47" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId167"/>
+  <legacyDrawing r:id="rId174"/>
   <tableParts count="1">
-    <tablePart r:id="rId168"/>
+    <tablePart r:id="rId175"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D80FDAA-3003-401B-B356-56919DF33C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC1A2CB-A15A-4B0F-B7EE-5702C4EFBBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="722">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2647,6 +2647,55 @@
   </si>
   <si>
     <t>Suporte solto e sm tampa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=174Y9m9tExq1l98aJFIHDze8Jx9W7-0Ej</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ofQNztIj6E0YiU__QY0kTw1wFJSNVfW6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puxador da tampa traseira tinta gasta 
+Pintura na frente vários pontos de picotado </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1U9VAzaaRximwtRhZkbdfgtTMnl1iRFGm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte da placa de aviso de emergência na porta de entrada quebrada 
+Luz do degraus não acende
+Último piso do degrau falta fita amarela no suporte 
+Forro da porta de entrada para o salão esta com furo
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1H4HwbaCvS09AUJKbw4aNTJGtmRMGqV7y</t>
+  </si>
+  <si>
+    <t>17, 27, 31, 37, 39, 43, 46</t>
+  </si>
+  <si>
+    <t>7, 9, 11, 27, 37, 43, 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poltrona 46 esta sem o conector USB
+Poltrona 33 esta sem o cinto 
+Corda das cortinas do lado direito se desfiando 
+Cortina com suporte quebrado na poltrona 43
+Suporte da Cortina sem a tampa nas poltronas 03 e 21
+Forro da lateral com um furo na poltrona 43
+Teto trincado no porta embrulho na poltrona 25 e 35
+Proteção da luz do porta embrulho quebrado e trincado nas numerações,  5,16,17,21 e 28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma lâmpada queimada 
+Porta papel higiênico sem tampa 
+Limpeza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trocar a borracha da porta
+Pintura interna e externa </t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2845,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ48">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3196,7 +3245,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ47"/>
+  <dimension ref="A1:GJ48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10192,6 +10241,89 @@
       </c>
       <c r="GJ47" s="3">
         <v>627456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>46056.458420972223</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="4">
+        <v>46056</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="AN48" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="AS48" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT48" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="BK48" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="BL48" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="BN48" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="BX48" s="3">
+        <v>9</v>
+      </c>
+      <c r="BY48" s="3">
+        <v>44</v>
+      </c>
+      <c r="CC48" s="3">
+        <v>33</v>
+      </c>
+      <c r="CF48" s="3">
+        <v>12</v>
+      </c>
+      <c r="CL48" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="DD48" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="DY48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB48" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="EU48" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="GG48" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="GJ48" s="3">
+        <v>2054256</v>
       </c>
     </row>
   </sheetData>
@@ -10369,11 +10501,15 @@
     <hyperlink ref="S47" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
     <hyperlink ref="AT47" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="AY47" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="R48" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="S48" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="AT48" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="BL48" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId174"/>
+  <legacyDrawing r:id="rId178"/>
   <tableParts count="1">
-    <tablePart r:id="rId175"/>
+    <tablePart r:id="rId179"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC1A2CB-A15A-4B0F-B7EE-5702C4EFBBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1262D13D-654A-42C5-B5B4-6CBC4A53E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="730">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2696,6 +2696,38 @@
   <si>
     <t xml:space="preserve">Trocar a borracha da porta
 Pintura interna e externa </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1csT7scnKVZdrSz7liFFFduHlnh8benef</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GsMuXkuuHQo5EF3-2a5sVe_PVAuegeFX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1vY_8C8Y1KBbaVOjjTShLTrU39q_Gg0kQ</t>
+  </si>
+  <si>
+    <t>19, 29</t>
+  </si>
+  <si>
+    <t>9, 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte do monitor da poltrona 16 trincado
+Adesivo QRC não tem
+Porta embrulho numeração 39 protetor de lâmpada trincado 
+Forro lateral da poltrona 27 rasgado
+Forro do piso do assoalho lateral das poltronas 7,9,15 e 19 descolando
+Piso e poltronas higienizacao
+Atrás da geladeira sujeira 
+Borracha do piso próximo ao toilette falta um pedaço 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está sem a tampa no porta papel higiênico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geladeira pintura externa e interna </t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2877,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ49">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3245,7 +3277,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ48"/>
+  <dimension ref="A1:GJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10324,6 +10356,77 @@
       </c>
       <c r="GJ48" s="3">
         <v>2054256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46056.671111226853</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="3">
+        <v>21036</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="4">
+        <v>46056</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="AS49" s="4">
+        <v>46174</v>
+      </c>
+      <c r="AT49" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="BD49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN49" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="CC49" s="3">
+        <v>29</v>
+      </c>
+      <c r="CD49" s="3">
+        <v>43</v>
+      </c>
+      <c r="CK49" s="3">
+        <v>7</v>
+      </c>
+      <c r="CL49" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="DD49" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="EB49" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="EG49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU49" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="GG49" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="GJ49" s="3">
+        <v>1834709</v>
       </c>
     </row>
   </sheetData>
@@ -10505,11 +10608,14 @@
     <hyperlink ref="S48" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
     <hyperlink ref="AT48" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="BL48" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="R49" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="S49" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="AT49" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId178"/>
+  <legacyDrawing r:id="rId181"/>
   <tableParts count="1">
-    <tablePart r:id="rId179"/>
+    <tablePart r:id="rId182"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1262D13D-654A-42C5-B5B4-6CBC4A53E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{539A5661-F9C9-4F14-937E-8149C52B7D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="753">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2728,6 +2728,113 @@
   </si>
   <si>
     <t xml:space="preserve">Geladeira pintura externa e interna </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14-1EAhc4mIvuMi94HGQ1kf3UUZ-7mMyp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bcZZRBG0fPVrTXPPVfQUb4LQH_2xUmGk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parachoque traseiro pintura 
+Braços dos retrovisores com pontos de ralado 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xe4ivrGrFPGxokw1mvSEURYpxMDPbOJc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19eOO_KQldbhjTebZA3Nuj5-EAo32i2-i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adesivo do cadeirante do parabrisa esta solto 
+Carenagem do braço do banco do segundo motorista solta
+Suporte de proteção do painel motorista em frente o banco do segundo motorista solto 
+Duas tomadas UBS não tem conexão </t>
+  </si>
+  <si>
+    <t>2, 34, 36, 41, 44</t>
+  </si>
+  <si>
+    <t>32, 33</t>
+  </si>
+  <si>
+    <t>13, 19, 28, 55</t>
+  </si>
+  <si>
+    <t>Cortinas do leite cama com manchas 
+Forro do teto do leite cama com rompimento na emenda 
+Adesivo QRC do primeiro piso solto 
+Fita da luz de LED do painel panorâmica solta
+O painel do apoia de mão do vidro panorâmica esta solto 
+Vidro panorâmico com um trinca
+Cortinas sem suporte das poltronas 7 e 9 
+Teto com manchas nos dois piso
+Suporte da primeira geladeira do segundo piso esta trincado
+Suporte da janela 39 com manchas
+Vidro da janela 23 com chiclete 
+Piso nas divisória encardido dos dois piso
+Higienizar as poltrona do segundo piso 
+Higienizar o suporte das poltronas do leite cama (encardido)
+Fita ante derrapante do primeiro e terceiro degrau esta sem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte do sabão líquido quebrado 
+Tela abaixo do porta papel higiênico com ferrugem 
+</t>
+  </si>
+  <si>
+    <t>Frontal, Lateral direita, Lateral esquerda, Traseira</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1keCo9iosI5LriCkl_Puiiy_K4zx_RR9L</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kaPJtBBT3M0dBTg1DWUF75uL7mmeaz3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parachoque traseiro trincado 
+Parachoque dinheiro trincado 
+Suporte  com nome marco Polo na trava do limpador trincado 
+Colunas do lado E ralado 
+Coluna do lado D ralado 
+Lateral D acima do vidro ralado
+Braços dos retrovisores trincado </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IjqkmZNr_OP_lAfg2eKoWJls8WE8Uvvx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falta o suporte de proteção do braço da porta de entrada
+No primeiro degrau acima do suporte da está trincado 
+Painel do motorista falta a acima de alumínio 
+Limpeza do lado do motorista </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NVYqiiRGjv7tKzPjPxqNXsFxzTWMN5r2</t>
+  </si>
+  <si>
+    <t>10, 22, 28, 34, 40, 42</t>
+  </si>
+  <si>
+    <t>19, 29, 35</t>
+  </si>
+  <si>
+    <t>Suporte das cortinas sem tampa nas poltrona, 19 e 27
+Suporte do encosto da poltrona 17 esta solto parte de trás
+Carenagem da poltronas 35 e 36 no acento parte de trás está quebrada
+Teto trincado dentro do porta embrulho na numeração 7,9,34,41 e 43
+Corre mão do porta embrulho quebrado na numeração 7
+Proteção das luminária do corre mão esta solta entre a numeração 14,18,22, e da 26 a 33
+Higienizar o piso e as poltronas 
+Pintar o suporte de frente das poltronas 1,2 ,3 e 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lixeira esta furada no suporte
+Papel higiênico sem tampa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pintar somente tampa </t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2984,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ51">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3277,7 +3384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ49"/>
+  <dimension ref="A1:GJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10427,6 +10534,196 @@
       </c>
       <c r="GJ49" s="3">
         <v>1834709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>46057.512801562501</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="3">
+        <v>40206</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="4">
+        <v>46057</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="AN50" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="AS50" s="4">
+        <v>46388</v>
+      </c>
+      <c r="AT50" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="AX50" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AY50" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="BD50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK50" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="BN50" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="BW50" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="CI50" s="3">
+        <v>2</v>
+      </c>
+      <c r="CJ50" s="3">
+        <v>53</v>
+      </c>
+      <c r="CU50" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="CV50" s="3">
+        <v>28</v>
+      </c>
+      <c r="DC50" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI50" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB50" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="EU50" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="GJ50" s="3">
+        <v>609350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>46057.664725034723</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="3">
+        <v>20766</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="4">
+        <v>46057</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="AN51" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="AS51" s="4">
+        <v>46327</v>
+      </c>
+      <c r="AT51" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="BK51" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="BL51" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="BN51" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="BY51" s="3">
+        <v>4</v>
+      </c>
+      <c r="CC51" s="3">
+        <v>14</v>
+      </c>
+      <c r="CL51" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CN51" s="3">
+        <v>45</v>
+      </c>
+      <c r="DB51" s="3">
+        <v>44</v>
+      </c>
+      <c r="DD51" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="DY51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB51" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="EF51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU51" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="FT51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG51" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="GJ51" s="3">
+        <v>1876380</v>
       </c>
     </row>
   </sheetData>
@@ -10611,11 +10908,19 @@
     <hyperlink ref="R49" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
     <hyperlink ref="S49" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
     <hyperlink ref="AT49" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="R50" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="S50" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AT50" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="AY50" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="R51" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="S51" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="AT51" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="BL51" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId181"/>
+  <legacyDrawing r:id="rId189"/>
   <tableParts count="1">
-    <tablePart r:id="rId182"/>
+    <tablePart r:id="rId190"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{539A5661-F9C9-4F14-937E-8149C52B7D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E30F4F4-ABE3-4B33-BEE0-7570AD5BD08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="765">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2835,6 +2835,67 @@
   </si>
   <si>
     <t xml:space="preserve">Pintar somente tampa </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZLuPwnNgiXll6d_XxFJoF7w2RpHbnUpG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BFQ-8pw46I9nM5mxXMjVvWY_mnre1nt7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furo na largaria do lado E acima do farol 
+Nome itapemirim letras cheia de bolha e picotado
+Os parachoque trincado
+Coluna do lado D ralado
+Lente da laterna traseira lado D trincado
+Próximo a Coluna do lado E na porta pintura trincada
+Placa dianteira solta </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1EfV8nKbIuJ8M7EawWfV1HAbSSo7H4jsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte do banco só motorista com ferrugem
+Ferrugem no braço da porta
+Insulfilme no vidro das costas do motorista esta rasgado
+Limpeza na cabine </t>
+  </si>
+  <si>
+    <t>19, 29, 33, 35</t>
+  </si>
+  <si>
+    <t>5, 28</t>
+  </si>
+  <si>
+    <t>23, 27, 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Carenagem do braço do porta embrulha quebrado acima da numeração 39
+Teto trincado acima da numeração 07,25,35 e 43
+Suporte da cortina sem tampa na numeração 03, 39,41 e 45
+Carenagem interna abaixo do braço da poltrona 24 esta solta
+Numeração de poltrona 17 e 18 esta sem
+Suporte do encosto da poltrona 25 esta solta na parte de trás 
+Forro do assoalho próximo a porta do banheiro esta solta e próximo a poltrona 43
+Suporte da emenda da lateral para o forro esta solto na poltrona 19
+Carenagem das luz e numeração de poltronas trincado 07,14,16,19,24 e 28
+Higienizar os bancos e o piso e as carenagens das luz de leitura e ar
+O suporte. Verificar as numeração de poltrona que esta um pouco solta do suporte
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinco da janela do banheiro quebrado 
+Borracha da porta solto
+Mola da tampa do vaso sem retorno 
+Pintar o vaso
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10GMy5RuI0we1RxIXTVDyJIkR-sSLCIlc</t>
+  </si>
+  <si>
+    <t>Pintar externo e interno</t>
   </si>
 </sst>
 </file>
@@ -2984,7 +3045,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ52">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3384,7 +3445,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ51"/>
+  <dimension ref="A1:GJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10724,6 +10785,95 @@
       </c>
       <c r="GJ51" s="3">
         <v>1876380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>46057.735169467589</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="3">
+        <v>20826</v>
+      </c>
+      <c r="E52" s="4">
+        <v>46057</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="AN52" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="AS52" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AT52" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="BK52" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="BN52" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="BZ52" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="CC52" s="3">
+        <v>28</v>
+      </c>
+      <c r="CD52" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD52" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="DY52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB52" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="ED52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="ER52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU52" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="EV52" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="FT52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="GG52" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="GJ52" s="3">
+        <v>1955212</v>
       </c>
     </row>
   </sheetData>
@@ -10916,11 +11066,15 @@
     <hyperlink ref="S51" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="AT51" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
     <hyperlink ref="BL51" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="R52" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="S52" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AT52" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="EV52" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId189"/>
+  <legacyDrawing r:id="rId193"/>
   <tableParts count="1">
-    <tablePart r:id="rId190"/>
+    <tablePart r:id="rId194"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E30F4F4-ABE3-4B33-BEE0-7570AD5BD08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9C0E86-BE14-411F-B609-37FDF02476AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="774">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2896,6 +2896,60 @@
   </si>
   <si>
     <t>Pintar externo e interno</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14ovfJddJyGIUf95SSHkx2p0GyraYR0Ds</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Z8mPtHh-asxK73NIEDUtQRq7ar9taAl0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte da grade do lado E acima da coluna quebrado
+Parachoque traseiro com pintura trincada 
+Suporte da laterna entre os dois lados D e E edta solto 
+Parachoque dianteiro estourado
+Vidro frontal lado da porta trincado 
+Suporte do farol de milhas quebrado 
+Lateral da porta de entrada e próximo ao paralama amassado e ralado 
+Piso do degrau, Primeira e o quarto estourado
+Fechadura da porta travada
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VODTiZ9PeiNoqxsOQjGOGfAvEQIzN9hR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FlnR5bHqafVOJtFu3pCL_1FbSKIV79of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assoalho com piso com buraco 
+Forro do Assoalho solto
+Suporte do Painel do motorista solto e do lado do degrau sem
+Cabine do motorista higienizar </t>
+  </si>
+  <si>
+    <t>23, 29, 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte da luz do porta embrulho está faltando da 37 a 46 e da 31 ao 44
+Teto trincado na altura das poltronas 12 e 43
+Suporte do braço do porta volume na numeração 10 quebrado 
+Suporte das cortinas quebrado nas janelas 19 e 39
+Suporte de cortinas sem a tampa, 45
+Higienizar as carenagens de todas as poltronas 
+Higienizar as poltronas e o piso
+Forro do assoalho lateral das poltronas 25,27,31 e 39 descolado 
+Forro do assoalho no vão das poltronas 25,27,29,33,35,37,39,41 e 43 esta com bolhas 
+Forro do assoalho do piso próximo ao toilette solto 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mola da trampo foi vaso sem acionamento 
+Pintura ao redor do vaso
+Tampa do suporte do papel higiênico sem
+Painel do vidro do toilette reparo de Pintura 
+Higieniza porta do banheiro 
+</t>
   </si>
 </sst>
 </file>
@@ -3045,7 +3099,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ53">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3445,7 +3499,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ52"/>
+  <dimension ref="A1:GJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10874,6 +10928,83 @@
       </c>
       <c r="GJ52" s="3">
         <v>1955212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>46058.63418739583</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="3">
+        <v>20846</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="4">
+        <v>46058</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="AN53" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="AO53" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>46388</v>
+      </c>
+      <c r="AT53" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="BF53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK53" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="BN53" s="3">
+        <v>15</v>
+      </c>
+      <c r="CC53" s="3">
+        <v>17</v>
+      </c>
+      <c r="DD53" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="DY53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB53" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="ER53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU53" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="GG53" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="GJ53" s="3">
+        <v>1876779</v>
       </c>
     </row>
   </sheetData>
@@ -11070,11 +11201,15 @@
     <hyperlink ref="S52" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
     <hyperlink ref="AT52" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
     <hyperlink ref="EV52" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="R53" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="S53" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="AO53" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="AT53" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId193"/>
+  <legacyDrawing r:id="rId197"/>
   <tableParts count="1">
-    <tablePart r:id="rId194"/>
+    <tablePart r:id="rId198"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9C0E86-BE14-411F-B609-37FDF02476AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73D4389-ACA4-4979-909F-0414492AB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="785">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2949,6 +2949,55 @@
 Tampa do suporte do papel higiênico sem
 Painel do vidro do toilette reparo de Pintura 
 Higieniza porta do banheiro 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eGt8GCBjfvEbKC0qUCSYKxvO6mPdjnd_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-J8nF-KApxGIRzdyPDqESIV2VYmIinp8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte da lanterna do lado esquerdo entre o eixo esta solta
+Pintura picotoda do lado D no leito cama </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OpE2vMXQ-DTBoyAK_YNw3BuWRF5JbkEP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1X4ufsfvVR3EpJi0-5JDRaplsTLLNbdEg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizar a cabine do motorista </t>
+  </si>
+  <si>
+    <t>10, 18, 24, 30, 36, 46, 47</t>
+  </si>
+  <si>
+    <t>49, 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leito cama na poltrona 54 proteção da luz dalta um pedaço 
+Tomada USB sem tampa de proteção poltrona 7
+Adesivo preferencial solto na poltrona 13
+Suporte das cortinas sem tampa numeração 1,3 e 13
+Interfone sem botão de encaixe e sem conexão do primeiro e segundo piso
+Higienizar os porta copos e carentes das poltronas 
+Higienizar o primeiro e segundo piso
+Higienizar o teto do primeiro e segundo piso
+Martelo de emergência da poltrona 55 solta
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte da lixeira solta
+Suporte do papel higiênico sem a tampa
+Higienizar o toilette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geladeira do cama leite sem o suporte na parte na parte de baixo
+Amortecedor com ferrugem 
+Geladeira do segundo piso com borracha interna solta 
+Borracha do assoalho solta em volta do suporte da geladeira do segundo piso 
 </t>
   </si>
 </sst>
@@ -3099,7 +3148,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ54">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3499,7 +3548,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ53"/>
+  <dimension ref="A1:GJ54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11005,6 +11054,95 @@
       </c>
       <c r="GJ53" s="3">
         <v>1876779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>46059.437598090277</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="3">
+        <v>50136</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="4">
+        <v>46059</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="AN54" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="AS54" s="4">
+        <v>46296</v>
+      </c>
+      <c r="AT54" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="AX54" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AY54" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="BK54" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="BN54" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="BP54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV54" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="BX54" s="3">
+        <v>17</v>
+      </c>
+      <c r="CD54" s="3">
+        <v>49</v>
+      </c>
+      <c r="CL54" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DB54" s="3">
+        <v>8</v>
+      </c>
+      <c r="EB54" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="EU54" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="GG54" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="GJ54" s="3">
+        <v>1191388</v>
       </c>
     </row>
   </sheetData>
@@ -11205,11 +11343,15 @@
     <hyperlink ref="S53" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
     <hyperlink ref="AO53" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="AT53" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="R54" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="S54" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="AT54" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="AY54" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId197"/>
+  <legacyDrawing r:id="rId201"/>
   <tableParts count="1">
-    <tablePart r:id="rId198"/>
+    <tablePart r:id="rId202"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73D4389-ACA4-4979-909F-0414492AB692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6995C14D-9E51-4317-8600-296F9E9EB01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24108" yWindow="1452" windowWidth="24216" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="807">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2999,6 +2999,106 @@
 Geladeira do segundo piso com borracha interna solta 
 Borracha do assoalho solta em volta do suporte da geladeira do segundo piso 
 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1l7V-PO9vxj_CwskxHKfptRnEjh71uKIE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NnGEaooic4p2-RRLtpZX5-qcoMA5qBxz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y4ldLITGaST7QyEwT2A_xuhyYpTmN1id</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UJoiwiOQ5O3u4MdFOVZ-hFUet_bRM_yl</t>
+  </si>
+  <si>
+    <t>Tomada USB do banco segundo motorista não tem conexão 
+Limpeza geral</t>
+  </si>
+  <si>
+    <t>2, 9, 21, 49</t>
+  </si>
+  <si>
+    <t>35, 55</t>
+  </si>
+  <si>
+    <t>11, 49, 50, 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizar o salão do leito cama
+Base do leito cama da poltrona 50 esta marca de arranhado
+Apoio de perna para poltrona 50 rasura que apoia no suporte 
+Suporte que segura Apoio de perna da poltrona 47 esta com o forro descolado
+Base que segura o Apoio de perna da poltrona 55 esta com uma braçadeira solta 
+Luz de leitura da poltrona 54 esta com mal contato 
+Cortina sem suporte da poltrona 1
+Higienizar o piso e os porta copos 
+Lateral com manchas na numeração 01,02,03,04,07,11,13,15,33 e 39 e descida do degraus
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só limpeza </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1a_vTb7eUcX2SsBTbMroOXU2FgClOC5fi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jBvm5lZv8NMaK9vscLjXZ1Ty8R9P12zQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrovisor lado direto e esquerdo Riscado 
+Parabrisa trincado no lado do motorista acima 
+Parachoque dianteiro pintura trincada
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FwIKnJTFFPLGJahUuTtYZXuC4tu2KKP6, https://drive.google.com/open?id=1l3zhotTeWvcuGMZNRsZf6rLtMz67cAE0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rss5LoySxkhYqrMj-PkFke8e1j2wq73L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinca no parabrisa do motorista na parte de cima
+Suporte do painel do motorista na subida dos degraus solta
+Suporte do retrovisor na cabendo motorista quebrado 
+Cortina da porta para o salão está suja
+</t>
+  </si>
+  <si>
+    <t>18, 26, 32, 42</t>
+  </si>
+  <si>
+    <t>5, 15, 36</t>
+  </si>
+  <si>
+    <t>13, 25, 35, 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na frente do apoio de pernas 1,2,3, e 4 pintura gasta
+Painel luz de leitura falta um suporte poltrona 8
+Número de poltrona a ser trocado, 05,06,35,36,39,40,45 e 46
+Luzes da numeração de poltrona fora do encaixe 45 e 46
+Lâmpada do porte embrulho queimado na numeração 09 e 10
+No porta embrulho na carenagem das Lâmpada falta emenda na numeração 17,18,27,28 e 33 e 34
+Numeração das poltronas solta 07,08,19,20,21,22,29,30,33 e 34
+No apoio de penas com plástico rasgado, 05,07,09,15,17,21,23,25,29 e 39
+Carenagem da poltrona 31 esta solta na parte de trás 
+Cortina sem o suporte na 37
+Suporte da cortina sem tampa na 43 e 45
+Forro do piso na lateral solto na numeração 25,29 e 37
+Forro azul na lateral da poltrona 31 ec41 rasgado 
+Higienizar as poltrona  e as carenagens
+Higienizar o piso das poltrona 
+Higienizar o as carenagens das luzes de leitura 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizar o toilette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz solta 
+Pintura externa e interna </t>
   </si>
 </sst>
 </file>
@@ -3148,7 +3248,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ56">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3548,11 +3648,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ54"/>
+  <dimension ref="A1:GJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11143,6 +11243,151 @@
       </c>
       <c r="GJ54" s="3">
         <v>1191388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>46059.539970787038</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="3">
+        <v>41136</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="4">
+        <v>46059</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="AS55" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT55" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="AX55" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AY55" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="BK55" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="BN55" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="BX55" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="CJ55" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="EB55" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="EU55" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="GJ55" s="3">
+        <v>418776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>46061.368411365736</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="3">
+        <v>20926</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="4">
+        <v>46061</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="AN56" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="AO56" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="AS56" s="4">
+        <v>46388</v>
+      </c>
+      <c r="AT56" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="AZ56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK56" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="BO56" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="CL56" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CR56" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="DD56" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="DY56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB56" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="EU56" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="GG56" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="GJ56" s="3">
+        <v>398844</v>
       </c>
     </row>
   </sheetData>
@@ -11347,11 +11592,18 @@
     <hyperlink ref="S54" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
     <hyperlink ref="AT54" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
     <hyperlink ref="AY54" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="R55" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="S55" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="AT55" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="AY55" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="R56" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="S56" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="AT56" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId201"/>
+  <legacyDrawing r:id="rId208"/>
   <tableParts count="1">
-    <tablePart r:id="rId202"/>
+    <tablePart r:id="rId209"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6995C14D-9E51-4317-8600-296F9E9EB01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF014784-40F1-4AC3-A781-CB2910CF61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="818">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -3099,6 +3099,61 @@
   <si>
     <t xml:space="preserve">Luz solta 
 Pintura externa e interna </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16SanL5d-xzxibnbs0IH8Gg0YHCefUBd1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1KoB9IK2FyZXf2kwgjOiGAFMjBlgixp4f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forol do lado D trepidando </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QmkUuOPdy95PFdBSuZhTBaWnbqdRJP1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte do extintor solto
+Fio do letreiro eletrônico solto 
+Limpeza da cabine do motorista 
+Limpar parabrisa entre o painel do motorista na parte de baixo 
+</t>
+  </si>
+  <si>
+    <t>11, 17</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>1, 9, 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suporte das lâmpadas no porta embrulhos esta faltando as emendas
+Suporte do ar que esta no porta embrulhos na numeração 19 esta solto
+Suporte de cortina na poltrona 41 esta sem
+Cortina sem a tampa do suporte poltrona 45
+Na numeração das poltronas 17 e 18 esta faltando a placa com os números 
+Apoio de pernas da poltronas 45 esta afastado do batente da poltrona 
+Apoio de pernas com os plástico rasgado, 05,06,07,08,11,15,16,16,19,20,21,23,24,25,27,31,32,33,35,39,40 e 43
+Forro do assoalho do piso para lateral se descolando na numeração, 03,05,09,1317,21 e 25
+Forro azul das laterais com furado nas numeração 03,31 e 38
+Forro atrás atrás das poltronas 45 e 46 esta solta
+Higienizar as carenagens das luzes de leitura 
+Higienizar piso abaixo das poltronas e as poltronas também 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizar o toilette 
+Borracha da porta se descolando e falta uma parte, 
+Tampa do vaso com o retorno da mola lenta 
+Lixeira esta solta do seu suporte 
+Porta do banheiro na parte interna pintura picotada 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geladeira falta a borracha da porta..
+</t>
   </si>
 </sst>
 </file>
@@ -3248,7 +3303,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ57">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3648,11 +3703,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ56"/>
+  <dimension ref="A1:GJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11388,6 +11443,86 @@
       </c>
       <c r="GJ56" s="3">
         <v>398844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>46062.467925439814</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="3">
+        <v>20996</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="4">
+        <v>46062</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="AN57" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="AS57" s="4">
+        <v>46357</v>
+      </c>
+      <c r="AT57" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="BK57" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="BN57" s="3">
+        <v>43</v>
+      </c>
+      <c r="BY57" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="CC57" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="CK57" s="3">
+        <v>13</v>
+      </c>
+      <c r="CL57" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="CW57" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="DD57" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="EB57" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="EF57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU57" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="GG57" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="GJ57" s="3">
+        <v>1858449</v>
       </c>
     </row>
   </sheetData>
@@ -11599,11 +11734,14 @@
     <hyperlink ref="R56" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
     <hyperlink ref="S56" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
     <hyperlink ref="AT56" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="R57" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="S57" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="AT57" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId208"/>
+  <legacyDrawing r:id="rId211"/>
   <tableParts count="1">
-    <tablePart r:id="rId209"/>
+    <tablePart r:id="rId212"/>
   </tableParts>
 </worksheet>
 </file>
--- a/base_de_dados.xlsx
+++ b/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\DOCUMENTOS\01_TRABALHO\01_ITAPEMIRIM\11.PROJETOS\01.CHECKLIST_VISTORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF014784-40F1-4AC3-A781-CB2910CF61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19251B6A-04CB-46E7-A461-F5DEB6F89ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="830">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -3154,6 +3154,46 @@
   <si>
     <t xml:space="preserve">Geladeira falta a borracha da porta..
 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15n_M8N3f_4Uh9ofZCmgt3fl8wxHiUdr3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1L4Jszh70ZnrmUe-AGrApBXXJ-RlqSPyX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15QM8RCmiOHFCLLZkBNj5x8YdbnMzymgU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1g6YLIhG1oqKsf7EPBUv0wemYRO1SeUDe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizar toda cabine </t>
+  </si>
+  <si>
+    <t>33, 34, 35, 36</t>
+  </si>
+  <si>
+    <t>23, 27, 34, 38, 39, 40, 41, 42, 44, 46, 48</t>
+  </si>
+  <si>
+    <t>1, 5, 7, 8, 12, 13, 19, 23, 47</t>
+  </si>
+  <si>
+    <t>3, 5, 6, 31, 43, 47, 48, 57</t>
+  </si>
+  <si>
+    <t>3, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortinas sem o suporte na numeração, 05,07 e 08
+Suporte de mão no vidro panorâmica trincado 
+Interfone do segundo piso a capinha solta
+Higienizar o o piso e os porta copos
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higienizar </t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3343,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:GJ58">
   <tableColumns count="192">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Endereço de e-mail"/>
@@ -3703,7 +3743,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GJ57"/>
+  <dimension ref="A1:GJ58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11523,6 +11563,80 @@
       </c>
       <c r="GJ57" s="3">
         <v>1858449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:192" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>46062.671578831018</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="3">
+        <v>50216</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="4">
+        <v>46062</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="AS58" s="4">
+        <v>46388</v>
+      </c>
+      <c r="AT58" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="AX58" s="4">
+        <v>46204</v>
+      </c>
+      <c r="AY58" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="BK58" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="BN58" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="BT58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW58" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="CJ58" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CU58" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="CZ58" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="EB58" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="EU58" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="GG58" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="GJ58" s="3">
+        <v>653605</v>
       </c>
     </row>
   </sheetData>
@@ -11737,11 +11851,15 @@
     <hyperlink ref="R57" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
     <hyperlink ref="S57" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
     <hyperlink ref="AT57" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="R58" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="S58" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="AT58" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="AY58" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId211"/>
+  <legacyDrawing r:id="rId215"/>
   <tableParts count="1">
-    <tablePart r:id="rId212"/>
+    <tablePart r:id="rId216"/>
   </tableParts>
 </worksheet>
 </file>